--- a/output6/【河洛話注音】《尚有力量的每日祈禱文》【河洛白話音】.xlsx
+++ b/output6/【河洛話注音】《尚有力量的每日祈禱文》【河洛白話音】.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8AF9DAF-4019-4771-B2B1-B585C5876DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418B260C-C91F-429D-947C-59938AF03C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="2790" yWindow="750" windowWidth="34605" windowHeight="12555" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1399,34 +1399,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㆲ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lik8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄌㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mui2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1435,390 +1419,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄌㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ki5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bun5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆠㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gun2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆣㄨㄣˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>khiam1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄎㄧㆰ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄅㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>king3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>giong2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆣㄧㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kam2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㆰˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ai3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ling5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄌㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siang7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>te3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ko1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆠㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄨㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tua7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄨㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sun5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kai3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄞˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thuat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄊㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄚㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kiann2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㆩˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>li5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄌㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kik8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bin5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆠㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kiu3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sing3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lin⁵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄌㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tiat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ka3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hue3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tai7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄞ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pio2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄅㄧㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thueh8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄊㄨㆤㆷ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sing1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1831,26 +1599,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>siok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>盍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1879,10 +1631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zuan5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1895,10 +1643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄜˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ziong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1923,10 +1667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆣㄚㆴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恭七時</t>
   </si>
   <si>
@@ -2338,10 +2078,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄋㄧㄨ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄇㄨㄧˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2382,9 +2118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文讀音</t>
-  </si>
-  <si>
     <t>丩七耐</t>
   </si>
   <si>
@@ -2394,12 +2127,6 @@
     <t>巾五柳</t>
   </si>
   <si>
-    <t>台羅拼音</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
     <t>sīong</t>
   </si>
   <si>
@@ -2881,7 +2608,280 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㆤ˫</t>
+    <t>白話音</t>
+  </si>
+  <si>
+    <t>十五音</t>
+  </si>
+  <si>
+    <t>SNI</t>
+  </si>
+  <si>
+    <t>恭七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍七英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩七耐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾八柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼一去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居一邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭二語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居二門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公八喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘四求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀五曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居三曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高一求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍二英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伽三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經五邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君五喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀四他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規五英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾四英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驚二求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾一英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居七時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經八求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艍一時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘四語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丩三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭八時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君一曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沽二時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經三時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巾五柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堅四地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠三求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜三喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皆七地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄二邊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檜八他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經一時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3669,7 +3669,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3984,18 +3984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6827,7 +6815,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -6923,7 +6911,7 @@
         <v>193</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -6936,18 +6924,18 @@
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="75" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="75" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6977,7 +6965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -7025,7 +7013,7 @@
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81" t="s">
-        <v>537</v>
+        <v>472</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
@@ -7047,31 +7035,31 @@
         <v>270</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>543</v>
+        <v>271</v>
       </c>
       <c r="F4" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="82" t="s">
-        <v>538</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>544</v>
-      </c>
-      <c r="I4" s="82" t="s">
+      <c r="J4" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="82" t="s">
         <v>278</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>279</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>285</v>
       </c>
       <c r="N4" s="82"/>
       <c r="O4" s="82"/>
@@ -7085,41 +7073,41 @@
       <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>619</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>620</v>
-      </c>
-      <c r="F5" s="109" t="s">
-        <v>621</v>
-      </c>
-      <c r="G5" s="109" t="s">
-        <v>622</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="I5" s="109" t="s">
-        <v>624</v>
-      </c>
-      <c r="J5" s="109" t="s">
-        <v>625</v>
-      </c>
-      <c r="K5" s="109" t="s">
-        <v>626</v>
-      </c>
-      <c r="L5" s="109" t="s">
-        <v>627</v>
-      </c>
-      <c r="M5" s="109" t="s">
-        <v>628</v>
-      </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
+      <c r="D5" s="97" t="s">
+        <v>550</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>552</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="I5" s="97" t="s">
+        <v>555</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>556</v>
+      </c>
+      <c r="K5" s="97" t="s">
+        <v>557</v>
+      </c>
+      <c r="L5" s="97" t="s">
+        <v>558</v>
+      </c>
+      <c r="M5" s="97" t="s">
+        <v>559</v>
+      </c>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
       <c r="S5" s="92"/>
       <c r="V5" s="104"/>
     </row>
@@ -7127,34 +7115,34 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
-        <v>271</v>
+        <v>626</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>273</v>
+        <v>627</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>275</v>
+        <v>628</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>280</v>
+        <v>631</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>282</v>
+        <v>632</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>284</v>
+        <v>633</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>286</v>
+        <v>634</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -7210,21 +7198,21 @@
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
       <c r="S9" s="92"/>
       <c r="T9" s="90"/>
       <c r="V9" s="104"/>
@@ -7249,7 +7237,7 @@
       <c r="S10" s="94"/>
       <c r="V10" s="104"/>
       <c r="AA10" s="1" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
@@ -7277,43 +7265,43 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>691</v>
+        <v>622</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J12" s="82"/>
       <c r="K12" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="L12" s="82" t="s">
         <v>264</v>
       </c>
       <c r="M12" s="82"/>
       <c r="N12" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="P12" s="82"/>
       <c r="Q12" s="82" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="R12" s="82" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="S12" s="91"/>
       <c r="V12" s="104"/>
@@ -7323,50 +7311,50 @@
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="109" t="s">
-        <v>629</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>630</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>631</v>
-      </c>
-      <c r="G13" s="109" t="s">
-        <v>632</v>
-      </c>
-      <c r="H13" s="109" t="s">
-        <v>633</v>
-      </c>
-      <c r="I13" s="109" t="s">
-        <v>634</v>
-      </c>
-      <c r="J13" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="K13" s="109" t="s">
-        <v>636</v>
-      </c>
-      <c r="L13" s="109" t="s">
-        <v>637</v>
-      </c>
-      <c r="M13" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="N13" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="O13" s="109" t="s">
-        <v>639</v>
-      </c>
-      <c r="P13" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q13" s="109" t="s">
-        <v>640</v>
-      </c>
-      <c r="R13" s="109" t="s">
-        <v>641</v>
+      <c r="D13" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>562</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>563</v>
+      </c>
+      <c r="H13" s="97" t="s">
+        <v>564</v>
+      </c>
+      <c r="I13" s="97" t="s">
+        <v>565</v>
+      </c>
+      <c r="J13" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="K13" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="L13" s="97" t="s">
+        <v>568</v>
+      </c>
+      <c r="M13" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="N13" s="97" t="s">
+        <v>569</v>
+      </c>
+      <c r="O13" s="97" t="s">
+        <v>570</v>
+      </c>
+      <c r="P13" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q13" s="97" t="s">
+        <v>571</v>
+      </c>
+      <c r="R13" s="97" t="s">
+        <v>572</v>
       </c>
       <c r="S13" s="92"/>
       <c r="V13" s="104"/>
@@ -7374,43 +7362,43 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="83" t="s">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>290</v>
+        <v>636</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>292</v>
+        <v>637</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>692</v>
+        <v>638</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>294</v>
+        <v>639</v>
       </c>
       <c r="I14" s="83" t="s">
-        <v>296</v>
+        <v>640</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="83" t="s">
-        <v>297</v>
+        <v>641</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>298</v>
+        <v>642</v>
       </c>
       <c r="M14" s="83"/>
       <c r="N14" s="83" t="s">
-        <v>300</v>
+        <v>643</v>
       </c>
       <c r="O14" s="83" t="s">
-        <v>379</v>
+        <v>644</v>
       </c>
       <c r="P14" s="83"/>
       <c r="Q14" s="83" t="s">
-        <v>302</v>
+        <v>645</v>
       </c>
       <c r="R14" s="83" t="s">
-        <v>391</v>
+        <v>646</v>
       </c>
       <c r="S14" s="94"/>
       <c r="V14" s="104"/>
@@ -7444,44 +7432,44 @@
         <v>261</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>546</v>
+        <v>286</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="82" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="M16" s="82" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="R16" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="104"/>
@@ -7491,50 +7479,50 @@
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="109" t="s">
-        <v>642</v>
-      </c>
-      <c r="F17" s="109" t="s">
-        <v>643</v>
-      </c>
-      <c r="G17" s="109" t="s">
-        <v>644</v>
-      </c>
-      <c r="H17" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="I17" s="109" t="s">
-        <v>645</v>
-      </c>
-      <c r="J17" s="109" t="s">
-        <v>646</v>
-      </c>
-      <c r="K17" s="109" t="s">
-        <v>647</v>
-      </c>
-      <c r="L17" s="109" t="s">
-        <v>648</v>
-      </c>
-      <c r="M17" s="109" t="s">
-        <v>649</v>
-      </c>
-      <c r="N17" s="109" t="s">
-        <v>650</v>
-      </c>
-      <c r="O17" s="109" t="s">
-        <v>645</v>
-      </c>
-      <c r="P17" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q17" s="109" t="s">
-        <v>645</v>
-      </c>
-      <c r="R17" s="109" t="s">
-        <v>646</v>
+      <c r="E17" s="97" t="s">
+        <v>573</v>
+      </c>
+      <c r="F17" s="97" t="s">
+        <v>574</v>
+      </c>
+      <c r="G17" s="97" t="s">
+        <v>575</v>
+      </c>
+      <c r="H17" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="I17" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="J17" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="K17" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>579</v>
+      </c>
+      <c r="M17" s="97" t="s">
+        <v>580</v>
+      </c>
+      <c r="N17" s="97" t="s">
+        <v>581</v>
+      </c>
+      <c r="O17" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="P17" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q17" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="R17" s="97" t="s">
+        <v>577</v>
       </c>
       <c r="S17" s="92"/>
       <c r="V17" s="104"/>
@@ -7542,47 +7530,47 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>335</v>
+        <v>647</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>304</v>
+        <v>648</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>305</v>
+        <v>649</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>307</v>
+        <v>650</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>309</v>
+        <v>651</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>311</v>
+        <v>652</v>
       </c>
       <c r="K18" s="83"/>
       <c r="L18" s="83" t="s">
-        <v>312</v>
+        <v>653</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>314</v>
+        <v>654</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>316</v>
+        <v>655</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>309</v>
+        <v>651</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="Q18" s="83" t="s">
-        <v>309</v>
+        <v>651</v>
       </c>
       <c r="R18" s="83" t="s">
-        <v>311</v>
+        <v>652</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="104"/>
@@ -7600,12 +7588,12 @@
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
       <c r="M19" s="81" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="N19" s="81"/>
       <c r="O19" s="81"/>
       <c r="P19" s="81" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
@@ -7615,41 +7603,41 @@
       <c r="B20" s="56"/>
       <c r="D20" s="82"/>
       <c r="E20" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>547</v>
+        <v>292</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="82" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="M20" s="82" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="N20" s="82" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="82" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
@@ -7660,50 +7648,50 @@
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="109" t="s">
-        <v>647</v>
-      </c>
-      <c r="E21" s="109" t="s">
+      <c r="D21" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="E21" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="109" t="s">
-        <v>651</v>
-      </c>
-      <c r="G21" s="109" t="s">
-        <v>652</v>
-      </c>
-      <c r="H21" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="I21" s="109" t="s">
-        <v>645</v>
-      </c>
-      <c r="J21" s="109" t="s">
-        <v>646</v>
-      </c>
-      <c r="K21" s="109" t="s">
-        <v>647</v>
-      </c>
-      <c r="L21" s="109" t="s">
-        <v>653</v>
-      </c>
-      <c r="M21" s="110" t="s">
-        <v>386</v>
-      </c>
-      <c r="N21" s="109" t="s">
-        <v>654</v>
-      </c>
-      <c r="O21" s="109" t="s">
-        <v>655</v>
-      </c>
-      <c r="P21" s="109" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q21" s="109" t="s">
-        <v>657</v>
-      </c>
-      <c r="R21" s="109" t="s">
-        <v>635</v>
+      <c r="F21" s="97" t="s">
+        <v>582</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>583</v>
+      </c>
+      <c r="H21" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="I21" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="J21" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="K21" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="L21" s="97" t="s">
+        <v>584</v>
+      </c>
+      <c r="M21" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="N21" s="97" t="s">
+        <v>585</v>
+      </c>
+      <c r="O21" s="97" t="s">
+        <v>586</v>
+      </c>
+      <c r="P21" s="97" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q21" s="97" t="s">
+        <v>588</v>
+      </c>
+      <c r="R21" s="97" t="s">
+        <v>566</v>
       </c>
       <c r="S21" s="92"/>
       <c r="V21" s="104"/>
@@ -7712,41 +7700,41 @@
       <c r="B22" s="58"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83" t="s">
-        <v>309</v>
+        <v>651</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>318</v>
+        <v>656</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>320</v>
+        <v>657</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>309</v>
+        <v>651</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>311</v>
+        <v>652</v>
       </c>
       <c r="K22" s="83"/>
       <c r="L22" s="83" t="s">
-        <v>322</v>
+        <v>658</v>
       </c>
       <c r="M22" s="83" t="s">
-        <v>323</v>
+        <v>659</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>325</v>
+        <v>660</v>
       </c>
       <c r="O22" s="83" t="s">
-        <v>327</v>
+        <v>661</v>
       </c>
       <c r="P22" s="83" t="s">
-        <v>380</v>
+        <v>662</v>
       </c>
       <c r="Q22" s="83" t="s">
-        <v>329</v>
+        <v>663</v>
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
@@ -7756,12 +7744,12 @@
       <c r="B23" s="63"/>
       <c r="C23" s="88"/>
       <c r="D23" s="81" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
@@ -7781,37 +7769,37 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="82" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>261</v>
       </c>
       <c r="I24" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="J24" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="K24" s="82" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="L24" s="82" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="M24" s="82" t="s">
         <v>266</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="O24" s="82"/>
       <c r="P24" s="82"/>
@@ -7825,82 +7813,82 @@
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="109" t="s">
-        <v>656</v>
-      </c>
-      <c r="E25" s="109" t="s">
-        <v>657</v>
-      </c>
-      <c r="F25" s="109" t="s">
-        <v>658</v>
-      </c>
-      <c r="G25" s="109" t="s">
-        <v>659</v>
-      </c>
-      <c r="H25" s="109" t="s">
+      <c r="D25" s="97" t="s">
+        <v>587</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>588</v>
+      </c>
+      <c r="F25" s="97" t="s">
+        <v>589</v>
+      </c>
+      <c r="G25" s="97" t="s">
+        <v>590</v>
+      </c>
+      <c r="H25" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="I25" s="109" t="s">
-        <v>629</v>
-      </c>
-      <c r="J25" s="109" t="s">
-        <v>660</v>
-      </c>
-      <c r="K25" s="109" t="s">
-        <v>661</v>
-      </c>
-      <c r="L25" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="M25" s="109" t="s">
-        <v>662</v>
-      </c>
-      <c r="N25" s="109" t="s">
-        <v>663</v>
-      </c>
-      <c r="O25" s="109" t="s">
-        <v>664</v>
-      </c>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
+      <c r="I25" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="J25" s="97" t="s">
+        <v>591</v>
+      </c>
+      <c r="K25" s="97" t="s">
+        <v>592</v>
+      </c>
+      <c r="L25" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="M25" s="97" t="s">
+        <v>593</v>
+      </c>
+      <c r="N25" s="97" t="s">
+        <v>594</v>
+      </c>
+      <c r="O25" s="97" t="s">
+        <v>595</v>
+      </c>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
       <c r="S25" s="92"/>
       <c r="V25" s="60"/>
     </row>
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="83" t="s">
-        <v>380</v>
+        <v>662</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>329</v>
+        <v>663</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>395</v>
+        <v>664</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>381</v>
+        <v>665</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>335</v>
+        <v>647</v>
       </c>
       <c r="I26" s="83" t="s">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="J26" s="83" t="s">
-        <v>307</v>
+        <v>650</v>
       </c>
       <c r="K26" s="83" t="s">
-        <v>331</v>
+        <v>666</v>
       </c>
       <c r="L26" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="M26" s="83" t="s">
-        <v>332</v>
+        <v>667</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>334</v>
+        <v>668</v>
       </c>
       <c r="O26" s="83"/>
       <c r="P26" s="83"/>
@@ -7909,7 +7897,7 @@
       <c r="S26" s="94"/>
       <c r="U26" s="1" t="str">
         <f xml:space="preserve"> MID($N$26,3,1)</f>
-        <v>ㄚ</v>
+        <v>他</v>
       </c>
       <c r="V26" s="60"/>
     </row>
@@ -7933,7 +7921,7 @@
       <c r="R27" s="81"/>
       <c r="U27" s="67" t="str">
         <f t="shared" ref="U27:U32" si="0" xml:space="preserve"> MID($N$26,4,1)</f>
-        <v>ㆵ</v>
+        <v/>
       </c>
       <c r="V27" s="68"/>
     </row>
@@ -7957,7 +7945,7 @@
       <c r="S28" s="91"/>
       <c r="U28" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>ㆵ</v>
+        <v/>
       </c>
       <c r="V28" s="60"/>
     </row>
@@ -7966,25 +7954,25 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="97"/>
       <c r="S29" s="92"/>
       <c r="U29" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>ㆵ</v>
+        <v/>
       </c>
       <c r="V29" s="60"/>
     </row>
@@ -8008,7 +7996,7 @@
       <c r="S30" s="94"/>
       <c r="U30" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>ㆵ</v>
+        <v/>
       </c>
       <c r="V30" s="60"/>
     </row>
@@ -8036,59 +8024,59 @@
       <c r="R31" s="81"/>
       <c r="U31" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>ㆵ</v>
+        <v/>
       </c>
       <c r="V31" s="68"/>
     </row>
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
-        <v>546</v>
+        <v>286</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>264</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M32" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="N32" s="82" t="s">
-        <v>548</v>
+        <v>300</v>
       </c>
       <c r="O32" s="82" t="s">
         <v>267</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="S32" s="91"/>
       <c r="U32" s="67" t="str">
         <f t="shared" si="0"/>
-        <v>ㆵ</v>
+        <v/>
       </c>
       <c r="V32" s="60"/>
     </row>
@@ -8097,50 +8085,50 @@
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="109" t="s">
-        <v>629</v>
-      </c>
-      <c r="E33" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="F33" s="109" t="s">
-        <v>639</v>
-      </c>
-      <c r="G33" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="H33" s="109" t="s">
-        <v>642</v>
-      </c>
-      <c r="I33" s="109" t="s">
-        <v>665</v>
-      </c>
-      <c r="J33" s="109" t="s">
-        <v>636</v>
-      </c>
-      <c r="K33" s="109" t="s">
-        <v>637</v>
-      </c>
-      <c r="L33" s="109" t="s">
-        <v>645</v>
-      </c>
-      <c r="M33" s="109" t="s">
-        <v>646</v>
-      </c>
-      <c r="N33" s="109" t="s">
-        <v>666</v>
-      </c>
-      <c r="O33" s="109" t="s">
-        <v>667</v>
-      </c>
-      <c r="P33" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q33" s="109" t="s">
-        <v>668</v>
-      </c>
-      <c r="R33" s="109" t="s">
-        <v>669</v>
+      <c r="D33" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="E33" s="97" t="s">
+        <v>569</v>
+      </c>
+      <c r="F33" s="97" t="s">
+        <v>570</v>
+      </c>
+      <c r="G33" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="H33" s="97" t="s">
+        <v>573</v>
+      </c>
+      <c r="I33" s="97" t="s">
+        <v>596</v>
+      </c>
+      <c r="J33" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="K33" s="97" t="s">
+        <v>568</v>
+      </c>
+      <c r="L33" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="M33" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="N33" s="97" t="s">
+        <v>597</v>
+      </c>
+      <c r="O33" s="97" t="s">
+        <v>598</v>
+      </c>
+      <c r="P33" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q33" s="97" t="s">
+        <v>599</v>
+      </c>
+      <c r="R33" s="97" t="s">
+        <v>600</v>
       </c>
       <c r="S33" s="92"/>
       <c r="V33" s="60"/>
@@ -8148,47 +8136,47 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>300</v>
+        <v>643</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>379</v>
+        <v>644</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
-        <v>304</v>
+        <v>648</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>395</v>
+        <v>664</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>297</v>
+        <v>641</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>298</v>
+        <v>642</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>309</v>
+        <v>651</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>311</v>
+        <v>652</v>
       </c>
       <c r="N34" s="83" t="s">
-        <v>337</v>
+        <v>669</v>
       </c>
       <c r="O34" s="83" t="s">
-        <v>338</v>
+        <v>670</v>
       </c>
       <c r="P34" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>340</v>
+        <v>671</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>342</v>
+        <v>672</v>
       </c>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
@@ -8219,38 +8207,38 @@
       <c r="B36" s="56"/>
       <c r="D36" s="82"/>
       <c r="E36" s="82" t="s">
-        <v>549</v>
+        <v>303</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="H36" s="82" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="I36" s="82" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="J36" s="82" t="s">
         <v>268</v>
       </c>
       <c r="K36" s="82"/>
       <c r="L36" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" s="82" t="s">
+        <v>337</v>
+      </c>
+      <c r="N36" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="P36" s="82" t="s">
         <v>321</v>
-      </c>
-      <c r="M36" s="82" t="s">
-        <v>401</v>
-      </c>
-      <c r="N36" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="O36" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="P36" s="82" t="s">
-        <v>382</v>
       </c>
       <c r="Q36" s="82"/>
       <c r="R36" s="82"/>
@@ -8262,49 +8250,49 @@
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="109" t="s">
-        <v>647</v>
-      </c>
-      <c r="E37" s="109" t="s">
-        <v>670</v>
-      </c>
-      <c r="F37" s="109" t="s">
-        <v>671</v>
-      </c>
-      <c r="G37" s="109" t="s">
-        <v>672</v>
-      </c>
-      <c r="H37" s="109" t="s">
-        <v>673</v>
-      </c>
-      <c r="I37" s="109" t="s">
+      <c r="D37" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="E37" s="97" t="s">
+        <v>601</v>
+      </c>
+      <c r="F37" s="97" t="s">
+        <v>602</v>
+      </c>
+      <c r="G37" s="97" t="s">
+        <v>603</v>
+      </c>
+      <c r="H37" s="97" t="s">
+        <v>604</v>
+      </c>
+      <c r="I37" s="97" t="s">
         <v>269</v>
       </c>
-      <c r="J37" s="109" t="s">
-        <v>674</v>
-      </c>
-      <c r="K37" s="109" t="s">
-        <v>647</v>
-      </c>
-      <c r="L37" s="109" t="s">
-        <v>653</v>
-      </c>
-      <c r="M37" s="109" t="s">
-        <v>386</v>
-      </c>
-      <c r="N37" s="109" t="s">
-        <v>629</v>
-      </c>
-      <c r="O37" s="109" t="s">
-        <v>675</v>
-      </c>
-      <c r="P37" s="109" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q37" s="109" t="s">
-        <v>664</v>
-      </c>
-      <c r="R37" s="109"/>
+      <c r="J37" s="97" t="s">
+        <v>605</v>
+      </c>
+      <c r="K37" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="L37" s="97" t="s">
+        <v>584</v>
+      </c>
+      <c r="M37" s="97" t="s">
+        <v>324</v>
+      </c>
+      <c r="N37" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="O37" s="97" t="s">
+        <v>606</v>
+      </c>
+      <c r="P37" s="97" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q37" s="97" t="s">
+        <v>595</v>
+      </c>
+      <c r="R37" s="97"/>
       <c r="S37" s="92"/>
       <c r="V37" s="60"/>
     </row>
@@ -8312,38 +8300,38 @@
       <c r="B38" s="58"/>
       <c r="D38" s="83"/>
       <c r="E38" s="83" t="s">
-        <v>344</v>
+        <v>673</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>346</v>
+        <v>674</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>347</v>
+        <v>675</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>349</v>
+        <v>676</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>351</v>
+        <v>677</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>352</v>
+        <v>678</v>
       </c>
       <c r="K38" s="83"/>
       <c r="L38" s="83" t="s">
-        <v>322</v>
+        <v>658</v>
       </c>
       <c r="M38" s="83" t="s">
-        <v>402</v>
+        <v>679</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>354</v>
+        <v>680</v>
       </c>
       <c r="P38" s="83" t="s">
-        <v>383</v>
+        <v>681</v>
       </c>
       <c r="Q38" s="83"/>
       <c r="R38" s="83"/>
@@ -8395,21 +8383,21 @@
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="109"/>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="97"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+      <c r="R41" s="97"/>
       <c r="S41" s="92"/>
       <c r="V41" s="60"/>
     </row>
@@ -8458,47 +8446,47 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="G44" s="82" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>543</v>
+        <v>271</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="K44" s="82" t="s">
         <v>261</v>
       </c>
       <c r="L44" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="M44" s="82" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="N44" s="82" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="O44" s="82" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="P44" s="82" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="82"/>
       <c r="R44" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="S44" s="91"/>
       <c r="V44" s="60"/>
@@ -8508,50 +8496,50 @@
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="109" t="s">
-        <v>629</v>
-      </c>
-      <c r="E45" s="109" t="s">
-        <v>677</v>
-      </c>
-      <c r="F45" s="109" t="s">
-        <v>678</v>
-      </c>
-      <c r="G45" s="109" t="s">
-        <v>679</v>
-      </c>
-      <c r="H45" s="109" t="s">
-        <v>620</v>
-      </c>
-      <c r="I45" s="109" t="s">
-        <v>680</v>
-      </c>
-      <c r="J45" s="109" t="s">
-        <v>681</v>
-      </c>
-      <c r="K45" s="109" t="s">
+      <c r="D45" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="E45" s="97" t="s">
+        <v>608</v>
+      </c>
+      <c r="F45" s="97" t="s">
+        <v>609</v>
+      </c>
+      <c r="G45" s="97" t="s">
+        <v>610</v>
+      </c>
+      <c r="H45" s="97" t="s">
+        <v>551</v>
+      </c>
+      <c r="I45" s="97" t="s">
+        <v>611</v>
+      </c>
+      <c r="J45" s="97" t="s">
+        <v>612</v>
+      </c>
+      <c r="K45" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="L45" s="109" t="s">
-        <v>680</v>
-      </c>
-      <c r="M45" s="109" t="s">
-        <v>682</v>
-      </c>
-      <c r="N45" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="O45" s="109" t="s">
-        <v>683</v>
-      </c>
-      <c r="P45" s="109" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q45" s="109" t="s">
-        <v>647</v>
-      </c>
-      <c r="R45" s="109" t="s">
-        <v>629</v>
+      <c r="L45" s="97" t="s">
+        <v>611</v>
+      </c>
+      <c r="M45" s="97" t="s">
+        <v>613</v>
+      </c>
+      <c r="N45" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="O45" s="97" t="s">
+        <v>614</v>
+      </c>
+      <c r="P45" s="97" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q45" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="R45" s="97" t="s">
+        <v>560</v>
       </c>
       <c r="S45" s="92"/>
       <c r="V45" s="60"/>
@@ -8559,47 +8547,47 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="83" t="s">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>355</v>
+        <v>682</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>325</v>
+        <v>660</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>357</v>
+        <v>683</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>273</v>
+        <v>627</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>359</v>
+        <v>684</v>
       </c>
       <c r="J46" s="83" t="s">
-        <v>361</v>
+        <v>685</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>335</v>
+        <v>647</v>
       </c>
       <c r="L46" s="83" t="s">
-        <v>359</v>
+        <v>684</v>
       </c>
       <c r="M46" s="83" t="s">
-        <v>363</v>
+        <v>686</v>
       </c>
       <c r="N46" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="O46" s="83" t="s">
-        <v>365</v>
+        <v>687</v>
       </c>
       <c r="P46" s="83" t="s">
-        <v>367</v>
+        <v>688</v>
       </c>
       <c r="Q46" s="83"/>
       <c r="R46" s="83" t="s">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="S46" s="94"/>
       <c r="V46" s="60"/>
@@ -8629,45 +8617,45 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="F48" s="82"/>
       <c r="G48" s="82" t="s">
-        <v>546</v>
+        <v>286</v>
       </c>
       <c r="H48" s="82" t="s">
         <v>261</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="J48" s="82" t="s">
         <v>264</v>
       </c>
       <c r="K48" s="82" t="s">
-        <v>549</v>
+        <v>303</v>
       </c>
       <c r="L48" s="82"/>
       <c r="M48" s="82" t="s">
-        <v>549</v>
+        <v>303</v>
       </c>
       <c r="N48" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="O48" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P48" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="Q48" s="82" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="R48" s="82" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="S48" s="91"/>
       <c r="V48" s="60"/>
@@ -8677,50 +8665,50 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="109" t="s">
-        <v>638</v>
-      </c>
-      <c r="E49" s="109" t="s">
-        <v>639</v>
-      </c>
-      <c r="F49" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="G49" s="109" t="s">
-        <v>642</v>
-      </c>
-      <c r="H49" s="109" t="s">
-        <v>685</v>
-      </c>
-      <c r="I49" s="109" t="s">
-        <v>636</v>
-      </c>
-      <c r="J49" s="109" t="s">
-        <v>637</v>
-      </c>
-      <c r="K49" s="109" t="s">
-        <v>670</v>
-      </c>
-      <c r="L49" s="109" t="s">
-        <v>647</v>
-      </c>
-      <c r="M49" s="109" t="s">
-        <v>670</v>
-      </c>
-      <c r="N49" s="109" t="s">
-        <v>671</v>
-      </c>
-      <c r="O49" s="109" t="s">
-        <v>645</v>
-      </c>
-      <c r="P49" s="109" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q49" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="R49" s="109" t="s">
-        <v>686</v>
+      <c r="D49" s="97" t="s">
+        <v>569</v>
+      </c>
+      <c r="E49" s="97" t="s">
+        <v>570</v>
+      </c>
+      <c r="F49" s="97" t="s">
+        <v>566</v>
+      </c>
+      <c r="G49" s="97" t="s">
+        <v>573</v>
+      </c>
+      <c r="H49" s="97" t="s">
+        <v>616</v>
+      </c>
+      <c r="I49" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="J49" s="97" t="s">
+        <v>568</v>
+      </c>
+      <c r="K49" s="97" t="s">
+        <v>601</v>
+      </c>
+      <c r="L49" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="M49" s="97" t="s">
+        <v>601</v>
+      </c>
+      <c r="N49" s="97" t="s">
+        <v>602</v>
+      </c>
+      <c r="O49" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="P49" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q49" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="R49" s="97" t="s">
+        <v>617</v>
       </c>
       <c r="S49" s="92"/>
       <c r="V49" s="60"/>
@@ -8728,45 +8716,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="83" t="s">
-        <v>300</v>
+        <v>643</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>379</v>
+        <v>644</v>
       </c>
       <c r="F50" s="83"/>
       <c r="G50" s="83" t="s">
-        <v>304</v>
+        <v>648</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>335</v>
+        <v>647</v>
       </c>
       <c r="I50" s="83" t="s">
-        <v>297</v>
+        <v>641</v>
       </c>
       <c r="J50" s="83" t="s">
-        <v>298</v>
+        <v>642</v>
       </c>
       <c r="K50" s="83" t="s">
-        <v>344</v>
+        <v>673</v>
       </c>
       <c r="L50" s="83"/>
       <c r="M50" s="83" t="s">
-        <v>344</v>
+        <v>673</v>
       </c>
       <c r="N50" s="83" t="s">
-        <v>346</v>
+        <v>674</v>
       </c>
       <c r="O50" s="83" t="s">
-        <v>309</v>
+        <v>651</v>
       </c>
       <c r="P50" s="83" t="s">
-        <v>311</v>
+        <v>652</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="R50" s="83" t="s">
-        <v>369</v>
+        <v>689</v>
       </c>
       <c r="S50" s="94"/>
       <c r="V50" s="60"/>
@@ -8794,32 +8782,32 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="82" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="82" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="H52" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="I52" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="I52" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="J52" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="M52" s="82" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="N52" s="82"/>
       <c r="O52" s="82"/>
@@ -8834,75 +8822,75 @@
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="109" t="s">
-        <v>687</v>
-      </c>
-      <c r="E53" s="109" t="s">
-        <v>647</v>
-      </c>
-      <c r="F53" s="109" t="s">
-        <v>653</v>
-      </c>
-      <c r="G53" s="109" t="s">
-        <v>386</v>
-      </c>
-      <c r="H53" s="109" t="s">
-        <v>629</v>
-      </c>
-      <c r="I53" s="109" t="s">
-        <v>660</v>
-      </c>
-      <c r="J53" s="109" t="s">
-        <v>688</v>
-      </c>
-      <c r="K53" s="109" t="s">
-        <v>623</v>
-      </c>
-      <c r="L53" s="109" t="s">
-        <v>689</v>
-      </c>
-      <c r="M53" s="109" t="s">
-        <v>690</v>
-      </c>
-      <c r="N53" s="109" t="s">
-        <v>664</v>
-      </c>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
+      <c r="D53" s="97" t="s">
+        <v>618</v>
+      </c>
+      <c r="E53" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="F53" s="97" t="s">
+        <v>584</v>
+      </c>
+      <c r="G53" s="97" t="s">
+        <v>324</v>
+      </c>
+      <c r="H53" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="I53" s="97" t="s">
+        <v>591</v>
+      </c>
+      <c r="J53" s="97" t="s">
+        <v>619</v>
+      </c>
+      <c r="K53" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="L53" s="97" t="s">
+        <v>620</v>
+      </c>
+      <c r="M53" s="97" t="s">
+        <v>621</v>
+      </c>
+      <c r="N53" s="97" t="s">
+        <v>595</v>
+      </c>
+      <c r="O53" s="97"/>
+      <c r="P53" s="97"/>
+      <c r="Q53" s="97"/>
+      <c r="R53" s="97"/>
       <c r="S53" s="92"/>
       <c r="V53" s="60"/>
     </row>
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>371</v>
+        <v>690</v>
       </c>
       <c r="E54" s="83"/>
       <c r="F54" s="83" t="s">
-        <v>322</v>
+        <v>658</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>402</v>
+        <v>679</v>
       </c>
       <c r="H54" s="83" t="s">
-        <v>288</v>
+        <v>635</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>307</v>
+        <v>650</v>
       </c>
       <c r="J54" s="83" t="s">
-        <v>359</v>
+        <v>684</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>277</v>
+        <v>630</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>373</v>
+        <v>691</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>375</v>
+        <v>692</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="83"/>
@@ -8957,21 +8945,21 @@
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="109"/>
-      <c r="L57" s="109"/>
-      <c r="M57" s="109"/>
-      <c r="N57" s="109"/>
-      <c r="O57" s="109"/>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="109"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="97"/>
+      <c r="M57" s="97"/>
+      <c r="N57" s="97"/>
+      <c r="O57" s="97"/>
+      <c r="P57" s="97"/>
+      <c r="Q57" s="97"/>
+      <c r="R57" s="97"/>
       <c r="S57" s="92"/>
       <c r="V57" s="60"/>
     </row>
@@ -9040,21 +9028,21 @@
         <f>B57+1</f>
         <v>15</v>
       </c>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="109"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="97"/>
+      <c r="M61" s="97"/>
+      <c r="N61" s="97"/>
+      <c r="O61" s="97"/>
+      <c r="P61" s="97"/>
+      <c r="Q61" s="97"/>
+      <c r="R61" s="97"/>
       <c r="S61" s="92"/>
       <c r="V61" s="60"/>
     </row>
@@ -9123,21 +9111,21 @@
         <f>B61+1</f>
         <v>16</v>
       </c>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="109"/>
-      <c r="J65" s="109"/>
-      <c r="K65" s="109"/>
-      <c r="L65" s="109"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="109"/>
-      <c r="O65" s="109"/>
-      <c r="P65" s="109"/>
-      <c r="Q65" s="109"/>
-      <c r="R65" s="109"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="97"/>
+      <c r="M65" s="97"/>
+      <c r="N65" s="97"/>
+      <c r="O65" s="97"/>
+      <c r="P65" s="97"/>
+      <c r="Q65" s="97"/>
+      <c r="R65" s="97"/>
       <c r="S65" s="92"/>
       <c r="V65" s="60"/>
     </row>
@@ -9206,21 +9194,21 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="109"/>
-      <c r="N69" s="109"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
-      <c r="Q69" s="109"/>
-      <c r="R69" s="109"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="97"/>
+      <c r="M69" s="97"/>
+      <c r="N69" s="97"/>
+      <c r="O69" s="97"/>
+      <c r="P69" s="97"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="97"/>
       <c r="S69" s="92"/>
       <c r="V69" s="60"/>
     </row>
@@ -9289,21 +9277,21 @@
         <f>B69+1</f>
         <v>18</v>
       </c>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="109"/>
-      <c r="L73" s="109"/>
-      <c r="M73" s="109"/>
-      <c r="N73" s="109"/>
-      <c r="O73" s="109"/>
-      <c r="P73" s="109"/>
-      <c r="Q73" s="109"/>
-      <c r="R73" s="109"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="97"/>
+      <c r="L73" s="97"/>
+      <c r="M73" s="97"/>
+      <c r="N73" s="97"/>
+      <c r="O73" s="97"/>
+      <c r="P73" s="97"/>
+      <c r="Q73" s="97"/>
+      <c r="R73" s="97"/>
       <c r="S73" s="92"/>
       <c r="V73" s="60"/>
     </row>
@@ -9372,21 +9360,21 @@
         <f>B73+1</f>
         <v>19</v>
       </c>
-      <c r="D77" s="109"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="109"/>
-      <c r="L77" s="109"/>
-      <c r="M77" s="109"/>
-      <c r="N77" s="109"/>
-      <c r="O77" s="109"/>
-      <c r="P77" s="109"/>
-      <c r="Q77" s="109"/>
-      <c r="R77" s="109"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97"/>
+      <c r="K77" s="97"/>
+      <c r="L77" s="97"/>
+      <c r="M77" s="97"/>
+      <c r="N77" s="97"/>
+      <c r="O77" s="97"/>
+      <c r="P77" s="97"/>
+      <c r="Q77" s="97"/>
+      <c r="R77" s="97"/>
       <c r="S77" s="92"/>
       <c r="V77" s="60"/>
     </row>
@@ -9455,21 +9443,21 @@
         <f>B77+1</f>
         <v>20</v>
       </c>
-      <c r="D81" s="109"/>
-      <c r="E81" s="109"/>
-      <c r="F81" s="109"/>
-      <c r="G81" s="109"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="109"/>
-      <c r="J81" s="109"/>
-      <c r="K81" s="109"/>
-      <c r="L81" s="109"/>
-      <c r="M81" s="109"/>
-      <c r="N81" s="109"/>
-      <c r="O81" s="109"/>
-      <c r="P81" s="109"/>
-      <c r="Q81" s="109"/>
-      <c r="R81" s="109"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="97"/>
+      <c r="J81" s="97"/>
+      <c r="K81" s="97"/>
+      <c r="L81" s="97"/>
+      <c r="M81" s="97"/>
+      <c r="N81" s="97"/>
+      <c r="O81" s="97"/>
+      <c r="P81" s="97"/>
+      <c r="Q81" s="97"/>
+      <c r="R81" s="97"/>
       <c r="S81" s="92"/>
       <c r="V81" s="60"/>
     </row>
@@ -9538,21 +9526,21 @@
         <f>B81+1</f>
         <v>21</v>
       </c>
-      <c r="D85" s="109"/>
-      <c r="E85" s="109"/>
-      <c r="F85" s="109"/>
-      <c r="G85" s="111"/>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
-      <c r="J85" s="109"/>
-      <c r="K85" s="109"/>
-      <c r="L85" s="109"/>
-      <c r="M85" s="109"/>
-      <c r="N85" s="109"/>
-      <c r="O85" s="109"/>
-      <c r="P85" s="109"/>
-      <c r="Q85" s="109"/>
-      <c r="R85" s="109"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="97"/>
+      <c r="N85" s="97"/>
+      <c r="O85" s="97"/>
+      <c r="P85" s="97"/>
+      <c r="Q85" s="97"/>
+      <c r="R85" s="97"/>
       <c r="S85" s="92"/>
       <c r="V85" s="60"/>
     </row>
@@ -9621,21 +9609,21 @@
         <f>B85+1</f>
         <v>22</v>
       </c>
-      <c r="D89" s="109"/>
-      <c r="E89" s="109"/>
-      <c r="F89" s="109"/>
-      <c r="G89" s="109"/>
-      <c r="H89" s="109"/>
-      <c r="I89" s="109"/>
-      <c r="J89" s="109"/>
-      <c r="K89" s="109"/>
-      <c r="L89" s="109"/>
-      <c r="M89" s="109"/>
-      <c r="N89" s="109"/>
-      <c r="O89" s="109"/>
-      <c r="P89" s="109"/>
-      <c r="Q89" s="109"/>
-      <c r="R89" s="109"/>
+      <c r="D89" s="97"/>
+      <c r="E89" s="97"/>
+      <c r="F89" s="97"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="97"/>
+      <c r="I89" s="97"/>
+      <c r="J89" s="97"/>
+      <c r="K89" s="97"/>
+      <c r="L89" s="97"/>
+      <c r="M89" s="97"/>
+      <c r="N89" s="97"/>
+      <c r="O89" s="97"/>
+      <c r="P89" s="97"/>
+      <c r="Q89" s="97"/>
+      <c r="R89" s="97"/>
       <c r="S89" s="92"/>
       <c r="V89" s="60"/>
     </row>
@@ -9704,21 +9692,21 @@
         <f>B89+1</f>
         <v>23</v>
       </c>
-      <c r="D93" s="109"/>
-      <c r="E93" s="109"/>
-      <c r="F93" s="109"/>
-      <c r="G93" s="109"/>
-      <c r="H93" s="109"/>
-      <c r="I93" s="109"/>
-      <c r="J93" s="109"/>
-      <c r="K93" s="109"/>
-      <c r="L93" s="109"/>
-      <c r="M93" s="109"/>
-      <c r="N93" s="109"/>
-      <c r="O93" s="109"/>
-      <c r="P93" s="109"/>
-      <c r="Q93" s="109"/>
-      <c r="R93" s="109"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="97"/>
+      <c r="I93" s="97"/>
+      <c r="J93" s="97"/>
+      <c r="K93" s="97"/>
+      <c r="L93" s="97"/>
+      <c r="M93" s="97"/>
+      <c r="N93" s="97"/>
+      <c r="O93" s="97"/>
+      <c r="P93" s="97"/>
+      <c r="Q93" s="97"/>
+      <c r="R93" s="97"/>
       <c r="S93" s="92"/>
       <c r="V93" s="60"/>
     </row>
@@ -9787,21 +9775,21 @@
         <f>B93+1</f>
         <v>24</v>
       </c>
-      <c r="D97" s="109"/>
-      <c r="E97" s="109"/>
-      <c r="F97" s="109"/>
-      <c r="G97" s="111"/>
-      <c r="H97" s="109"/>
-      <c r="I97" s="109"/>
-      <c r="J97" s="109"/>
-      <c r="K97" s="109"/>
-      <c r="L97" s="109"/>
-      <c r="M97" s="109"/>
-      <c r="N97" s="109"/>
-      <c r="O97" s="109"/>
-      <c r="P97" s="109"/>
-      <c r="Q97" s="109"/>
-      <c r="R97" s="109"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="98"/>
+      <c r="H97" s="97"/>
+      <c r="I97" s="97"/>
+      <c r="J97" s="97"/>
+      <c r="K97" s="97"/>
+      <c r="L97" s="97"/>
+      <c r="M97" s="97"/>
+      <c r="N97" s="97"/>
+      <c r="O97" s="97"/>
+      <c r="P97" s="97"/>
+      <c r="Q97" s="97"/>
+      <c r="R97" s="97"/>
       <c r="S97" s="92"/>
       <c r="V97" s="60"/>
     </row>
@@ -9870,21 +9858,21 @@
         <f>B97+1</f>
         <v>25</v>
       </c>
-      <c r="D101" s="109"/>
-      <c r="E101" s="109"/>
-      <c r="F101" s="109"/>
-      <c r="G101" s="109"/>
-      <c r="H101" s="109"/>
-      <c r="I101" s="109"/>
-      <c r="J101" s="109"/>
-      <c r="K101" s="109"/>
-      <c r="L101" s="109"/>
-      <c r="M101" s="109"/>
-      <c r="N101" s="109"/>
-      <c r="O101" s="109"/>
-      <c r="P101" s="109"/>
-      <c r="Q101" s="109"/>
-      <c r="R101" s="109"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
+      <c r="F101" s="97"/>
+      <c r="G101" s="97"/>
+      <c r="H101" s="97"/>
+      <c r="I101" s="97"/>
+      <c r="J101" s="97"/>
+      <c r="K101" s="97"/>
+      <c r="L101" s="97"/>
+      <c r="M101" s="97"/>
+      <c r="N101" s="97"/>
+      <c r="O101" s="97"/>
+      <c r="P101" s="97"/>
+      <c r="Q101" s="97"/>
+      <c r="R101" s="97"/>
       <c r="S101" s="92"/>
       <c r="V101" s="60"/>
     </row>
@@ -9953,21 +9941,21 @@
         <f>B101+1</f>
         <v>26</v>
       </c>
-      <c r="D105" s="109"/>
-      <c r="E105" s="109"/>
-      <c r="F105" s="109"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="109"/>
-      <c r="I105" s="109"/>
-      <c r="J105" s="109"/>
-      <c r="K105" s="109"/>
-      <c r="L105" s="109"/>
-      <c r="M105" s="109"/>
-      <c r="N105" s="109"/>
-      <c r="O105" s="112"/>
-      <c r="P105" s="109"/>
-      <c r="Q105" s="109"/>
-      <c r="R105" s="109"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="97"/>
+      <c r="F105" s="97"/>
+      <c r="G105" s="98"/>
+      <c r="H105" s="97"/>
+      <c r="I105" s="97"/>
+      <c r="J105" s="97"/>
+      <c r="K105" s="97"/>
+      <c r="L105" s="97"/>
+      <c r="M105" s="97"/>
+      <c r="N105" s="97"/>
+      <c r="O105" s="99"/>
+      <c r="P105" s="97"/>
+      <c r="Q105" s="97"/>
+      <c r="R105" s="97"/>
       <c r="S105" s="92"/>
       <c r="V105" s="60"/>
     </row>
@@ -10036,21 +10024,21 @@
         <f>B105+1</f>
         <v>27</v>
       </c>
-      <c r="D109" s="109"/>
-      <c r="E109" s="109"/>
-      <c r="F109" s="109"/>
-      <c r="G109" s="109"/>
-      <c r="H109" s="109"/>
-      <c r="I109" s="109"/>
-      <c r="J109" s="109"/>
-      <c r="K109" s="109"/>
-      <c r="L109" s="109"/>
-      <c r="M109" s="109"/>
-      <c r="N109" s="109"/>
-      <c r="O109" s="109"/>
-      <c r="P109" s="109"/>
-      <c r="Q109" s="109"/>
-      <c r="R109" s="109"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="97"/>
+      <c r="F109" s="97"/>
+      <c r="G109" s="97"/>
+      <c r="H109" s="97"/>
+      <c r="I109" s="97"/>
+      <c r="J109" s="97"/>
+      <c r="K109" s="97"/>
+      <c r="L109" s="97"/>
+      <c r="M109" s="97"/>
+      <c r="N109" s="97"/>
+      <c r="O109" s="97"/>
+      <c r="P109" s="97"/>
+      <c r="Q109" s="97"/>
+      <c r="R109" s="97"/>
       <c r="S109" s="92"/>
       <c r="V109" s="60"/>
     </row>
@@ -10119,21 +10107,21 @@
         <f>B109+1</f>
         <v>28</v>
       </c>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
-      <c r="G113" s="109"/>
-      <c r="H113" s="109"/>
-      <c r="I113" s="109"/>
-      <c r="J113" s="109"/>
-      <c r="K113" s="109"/>
-      <c r="L113" s="109"/>
-      <c r="M113" s="109"/>
-      <c r="N113" s="109"/>
-      <c r="O113" s="112"/>
-      <c r="P113" s="109"/>
-      <c r="Q113" s="109"/>
-      <c r="R113" s="109"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="97"/>
+      <c r="F113" s="97"/>
+      <c r="G113" s="97"/>
+      <c r="H113" s="97"/>
+      <c r="I113" s="97"/>
+      <c r="J113" s="97"/>
+      <c r="K113" s="97"/>
+      <c r="L113" s="97"/>
+      <c r="M113" s="97"/>
+      <c r="N113" s="97"/>
+      <c r="O113" s="99"/>
+      <c r="P113" s="97"/>
+      <c r="Q113" s="97"/>
+      <c r="R113" s="97"/>
       <c r="S113" s="92"/>
       <c r="V113" s="60"/>
     </row>
@@ -10202,21 +10190,21 @@
         <f>B113+1</f>
         <v>29</v>
       </c>
-      <c r="D117" s="109"/>
-      <c r="E117" s="109"/>
-      <c r="F117" s="111"/>
-      <c r="G117" s="111"/>
-      <c r="H117" s="109"/>
-      <c r="I117" s="109"/>
-      <c r="J117" s="109"/>
-      <c r="K117" s="109"/>
-      <c r="L117" s="109"/>
-      <c r="M117" s="109"/>
-      <c r="N117" s="109"/>
-      <c r="O117" s="109"/>
-      <c r="P117" s="109"/>
-      <c r="Q117" s="109"/>
-      <c r="R117" s="109"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="97"/>
+      <c r="J117" s="97"/>
+      <c r="K117" s="97"/>
+      <c r="L117" s="97"/>
+      <c r="M117" s="97"/>
+      <c r="N117" s="97"/>
+      <c r="O117" s="97"/>
+      <c r="P117" s="97"/>
+      <c r="Q117" s="97"/>
+      <c r="R117" s="97"/>
       <c r="S117" s="92"/>
       <c r="V117" s="60"/>
     </row>
@@ -10285,21 +10273,21 @@
         <f>B117+1</f>
         <v>30</v>
       </c>
-      <c r="D121" s="109"/>
-      <c r="E121" s="109"/>
-      <c r="F121" s="109"/>
-      <c r="G121" s="111"/>
-      <c r="H121" s="109"/>
-      <c r="I121" s="109"/>
-      <c r="J121" s="109"/>
-      <c r="K121" s="109"/>
-      <c r="L121" s="109"/>
-      <c r="M121" s="109"/>
-      <c r="N121" s="109"/>
-      <c r="O121" s="109"/>
-      <c r="P121" s="109"/>
-      <c r="Q121" s="109"/>
-      <c r="R121" s="109"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="97"/>
+      <c r="F121" s="97"/>
+      <c r="G121" s="98"/>
+      <c r="H121" s="97"/>
+      <c r="I121" s="97"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="97"/>
+      <c r="L121" s="97"/>
+      <c r="M121" s="97"/>
+      <c r="N121" s="97"/>
+      <c r="O121" s="97"/>
+      <c r="P121" s="97"/>
+      <c r="Q121" s="97"/>
+      <c r="R121" s="97"/>
       <c r="S121" s="92"/>
       <c r="V121" s="60"/>
     </row>
@@ -10368,21 +10356,21 @@
         <f>B121+1</f>
         <v>31</v>
       </c>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
-      <c r="G125" s="111"/>
-      <c r="H125" s="109"/>
-      <c r="I125" s="109"/>
-      <c r="J125" s="109"/>
-      <c r="K125" s="109"/>
-      <c r="L125" s="109"/>
-      <c r="M125" s="109"/>
-      <c r="N125" s="109"/>
-      <c r="O125" s="109"/>
-      <c r="P125" s="109"/>
-      <c r="Q125" s="109"/>
-      <c r="R125" s="109"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="97"/>
+      <c r="G125" s="98"/>
+      <c r="H125" s="97"/>
+      <c r="I125" s="97"/>
+      <c r="J125" s="97"/>
+      <c r="K125" s="97"/>
+      <c r="L125" s="97"/>
+      <c r="M125" s="97"/>
+      <c r="N125" s="97"/>
+      <c r="O125" s="97"/>
+      <c r="P125" s="97"/>
+      <c r="Q125" s="97"/>
+      <c r="R125" s="97"/>
       <c r="S125" s="92"/>
       <c r="V125" s="60"/>
     </row>
@@ -10451,21 +10439,21 @@
         <f>B125+1</f>
         <v>32</v>
       </c>
-      <c r="D129" s="109"/>
-      <c r="E129" s="109"/>
-      <c r="F129" s="109"/>
-      <c r="G129" s="109"/>
-      <c r="H129" s="109"/>
-      <c r="I129" s="109"/>
-      <c r="J129" s="109"/>
-      <c r="K129" s="109"/>
-      <c r="L129" s="109"/>
-      <c r="M129" s="109"/>
-      <c r="N129" s="109"/>
-      <c r="O129" s="109"/>
-      <c r="P129" s="109"/>
-      <c r="Q129" s="109"/>
-      <c r="R129" s="109"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="97"/>
+      <c r="F129" s="97"/>
+      <c r="G129" s="97"/>
+      <c r="H129" s="97"/>
+      <c r="I129" s="97"/>
+      <c r="J129" s="97"/>
+      <c r="K129" s="97"/>
+      <c r="L129" s="97"/>
+      <c r="M129" s="97"/>
+      <c r="N129" s="97"/>
+      <c r="O129" s="97"/>
+      <c r="P129" s="97"/>
+      <c r="Q129" s="97"/>
+      <c r="R129" s="97"/>
       <c r="S129" s="92"/>
       <c r="V129" s="60"/>
     </row>
@@ -10534,21 +10522,21 @@
         <f>B129+1</f>
         <v>33</v>
       </c>
-      <c r="D133" s="109"/>
-      <c r="E133" s="109"/>
-      <c r="F133" s="109"/>
-      <c r="G133" s="111"/>
-      <c r="H133" s="109"/>
-      <c r="I133" s="109"/>
-      <c r="J133" s="109"/>
-      <c r="K133" s="109"/>
-      <c r="L133" s="109"/>
-      <c r="M133" s="109"/>
-      <c r="N133" s="109"/>
-      <c r="O133" s="109"/>
-      <c r="P133" s="109"/>
-      <c r="Q133" s="109"/>
-      <c r="R133" s="109"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="98"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97"/>
+      <c r="J133" s="97"/>
+      <c r="K133" s="97"/>
+      <c r="L133" s="97"/>
+      <c r="M133" s="97"/>
+      <c r="N133" s="97"/>
+      <c r="O133" s="97"/>
+      <c r="P133" s="97"/>
+      <c r="Q133" s="97"/>
+      <c r="R133" s="97"/>
       <c r="S133" s="92"/>
       <c r="V133" s="60"/>
     </row>
@@ -10617,21 +10605,21 @@
         <f>B133+1</f>
         <v>34</v>
       </c>
-      <c r="D137" s="109"/>
-      <c r="E137" s="109"/>
-      <c r="F137" s="109"/>
-      <c r="G137" s="109"/>
-      <c r="H137" s="109"/>
-      <c r="I137" s="109"/>
-      <c r="J137" s="109"/>
-      <c r="K137" s="109"/>
-      <c r="L137" s="109"/>
-      <c r="M137" s="109"/>
-      <c r="N137" s="109"/>
-      <c r="O137" s="109"/>
-      <c r="P137" s="109"/>
-      <c r="Q137" s="109"/>
-      <c r="R137" s="109"/>
+      <c r="D137" s="97"/>
+      <c r="E137" s="97"/>
+      <c r="F137" s="97"/>
+      <c r="G137" s="97"/>
+      <c r="H137" s="97"/>
+      <c r="I137" s="97"/>
+      <c r="J137" s="97"/>
+      <c r="K137" s="97"/>
+      <c r="L137" s="97"/>
+      <c r="M137" s="97"/>
+      <c r="N137" s="97"/>
+      <c r="O137" s="97"/>
+      <c r="P137" s="97"/>
+      <c r="Q137" s="97"/>
+      <c r="R137" s="97"/>
       <c r="S137" s="92"/>
       <c r="V137" s="60"/>
     </row>
@@ -10700,21 +10688,21 @@
         <f>B137+1</f>
         <v>35</v>
       </c>
-      <c r="D141" s="109"/>
-      <c r="E141" s="109"/>
-      <c r="F141" s="109"/>
-      <c r="G141" s="111"/>
-      <c r="H141" s="109"/>
-      <c r="I141" s="109"/>
-      <c r="J141" s="109"/>
-      <c r="K141" s="109"/>
-      <c r="L141" s="109"/>
-      <c r="M141" s="109"/>
-      <c r="N141" s="109"/>
-      <c r="O141" s="109"/>
-      <c r="P141" s="109"/>
-      <c r="Q141" s="109"/>
-      <c r="R141" s="109"/>
+      <c r="D141" s="97"/>
+      <c r="E141" s="97"/>
+      <c r="F141" s="97"/>
+      <c r="G141" s="98"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="97"/>
+      <c r="J141" s="97"/>
+      <c r="K141" s="97"/>
+      <c r="L141" s="97"/>
+      <c r="M141" s="97"/>
+      <c r="N141" s="97"/>
+      <c r="O141" s="97"/>
+      <c r="P141" s="97"/>
+      <c r="Q141" s="97"/>
+      <c r="R141" s="97"/>
       <c r="S141" s="92"/>
       <c r="V141" s="60"/>
     </row>
@@ -10783,21 +10771,21 @@
         <f>B141+1</f>
         <v>36</v>
       </c>
-      <c r="D145" s="109"/>
-      <c r="E145" s="109"/>
-      <c r="F145" s="109"/>
-      <c r="G145" s="111"/>
-      <c r="H145" s="109"/>
-      <c r="I145" s="109"/>
-      <c r="J145" s="109"/>
-      <c r="K145" s="109"/>
-      <c r="L145" s="109"/>
-      <c r="M145" s="109"/>
-      <c r="N145" s="109"/>
-      <c r="O145" s="109"/>
-      <c r="P145" s="109"/>
-      <c r="Q145" s="109"/>
-      <c r="R145" s="109"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="98"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="97"/>
+      <c r="K145" s="97"/>
+      <c r="L145" s="97"/>
+      <c r="M145" s="97"/>
+      <c r="N145" s="97"/>
+      <c r="O145" s="97"/>
+      <c r="P145" s="97"/>
+      <c r="Q145" s="97"/>
+      <c r="R145" s="97"/>
       <c r="S145" s="92"/>
       <c r="V145" s="60"/>
     </row>
@@ -10866,21 +10854,21 @@
         <f>B145+1</f>
         <v>37</v>
       </c>
-      <c r="D149" s="109"/>
-      <c r="E149" s="109"/>
-      <c r="F149" s="109"/>
-      <c r="G149" s="109"/>
-      <c r="H149" s="109"/>
-      <c r="I149" s="109"/>
-      <c r="J149" s="109"/>
-      <c r="K149" s="109"/>
-      <c r="L149" s="109"/>
-      <c r="M149" s="109"/>
-      <c r="N149" s="109"/>
-      <c r="O149" s="109"/>
-      <c r="P149" s="109"/>
-      <c r="Q149" s="109"/>
-      <c r="R149" s="109"/>
+      <c r="D149" s="97"/>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
+      <c r="I149" s="97"/>
+      <c r="J149" s="97"/>
+      <c r="K149" s="97"/>
+      <c r="L149" s="97"/>
+      <c r="M149" s="97"/>
+      <c r="N149" s="97"/>
+      <c r="O149" s="97"/>
+      <c r="P149" s="97"/>
+      <c r="Q149" s="97"/>
+      <c r="R149" s="97"/>
       <c r="S149" s="92"/>
       <c r="V149" s="60"/>
     </row>
@@ -10949,21 +10937,21 @@
         <f>B149+1</f>
         <v>38</v>
       </c>
-      <c r="D153" s="109"/>
-      <c r="E153" s="109"/>
-      <c r="F153" s="109"/>
-      <c r="G153" s="109"/>
-      <c r="H153" s="109"/>
-      <c r="I153" s="109"/>
-      <c r="J153" s="109"/>
-      <c r="K153" s="109"/>
-      <c r="L153" s="109"/>
-      <c r="M153" s="109"/>
-      <c r="N153" s="109"/>
-      <c r="O153" s="109"/>
-      <c r="P153" s="109"/>
-      <c r="Q153" s="109"/>
-      <c r="R153" s="109"/>
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
+      <c r="I153" s="97"/>
+      <c r="J153" s="97"/>
+      <c r="K153" s="97"/>
+      <c r="L153" s="97"/>
+      <c r="M153" s="97"/>
+      <c r="N153" s="97"/>
+      <c r="O153" s="97"/>
+      <c r="P153" s="97"/>
+      <c r="Q153" s="97"/>
+      <c r="R153" s="97"/>
       <c r="S153" s="92"/>
       <c r="V153" s="60"/>
     </row>
@@ -11032,21 +11020,21 @@
         <f>B153+1</f>
         <v>39</v>
       </c>
-      <c r="D157" s="109"/>
-      <c r="E157" s="109"/>
-      <c r="F157" s="109"/>
-      <c r="G157" s="109"/>
-      <c r="H157" s="109"/>
-      <c r="I157" s="109"/>
-      <c r="J157" s="109"/>
-      <c r="K157" s="109"/>
-      <c r="L157" s="109"/>
-      <c r="M157" s="109"/>
-      <c r="N157" s="109"/>
-      <c r="O157" s="109"/>
-      <c r="P157" s="109"/>
-      <c r="Q157" s="109"/>
-      <c r="R157" s="109"/>
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
+      <c r="I157" s="97"/>
+      <c r="J157" s="97"/>
+      <c r="K157" s="97"/>
+      <c r="L157" s="97"/>
+      <c r="M157" s="97"/>
+      <c r="N157" s="97"/>
+      <c r="O157" s="97"/>
+      <c r="P157" s="97"/>
+      <c r="Q157" s="97"/>
+      <c r="R157" s="97"/>
       <c r="S157" s="92"/>
       <c r="V157" s="60"/>
     </row>
@@ -11115,21 +11103,21 @@
         <f>B157+1</f>
         <v>40</v>
       </c>
-      <c r="D161" s="109"/>
-      <c r="E161" s="109"/>
-      <c r="F161" s="109"/>
-      <c r="G161" s="109"/>
-      <c r="H161" s="109"/>
-      <c r="I161" s="109"/>
-      <c r="J161" s="109"/>
-      <c r="K161" s="109"/>
-      <c r="L161" s="109"/>
-      <c r="M161" s="109"/>
-      <c r="N161" s="109"/>
-      <c r="O161" s="109"/>
-      <c r="P161" s="109"/>
-      <c r="Q161" s="109"/>
-      <c r="R161" s="109"/>
+      <c r="D161" s="97"/>
+      <c r="E161" s="97"/>
+      <c r="F161" s="97"/>
+      <c r="G161" s="97"/>
+      <c r="H161" s="97"/>
+      <c r="I161" s="97"/>
+      <c r="J161" s="97"/>
+      <c r="K161" s="97"/>
+      <c r="L161" s="97"/>
+      <c r="M161" s="97"/>
+      <c r="N161" s="97"/>
+      <c r="O161" s="97"/>
+      <c r="P161" s="97"/>
+      <c r="Q161" s="97"/>
+      <c r="R161" s="97"/>
       <c r="S161" s="92"/>
       <c r="V161" s="60"/>
     </row>
@@ -11198,21 +11186,21 @@
         <f>B161+1</f>
         <v>41</v>
       </c>
-      <c r="D165" s="109"/>
-      <c r="E165" s="109"/>
-      <c r="F165" s="109"/>
-      <c r="G165" s="109"/>
-      <c r="H165" s="109"/>
-      <c r="I165" s="109"/>
-      <c r="J165" s="109"/>
-      <c r="K165" s="109"/>
-      <c r="L165" s="109"/>
-      <c r="M165" s="109"/>
-      <c r="N165" s="109"/>
-      <c r="O165" s="109"/>
-      <c r="P165" s="109"/>
-      <c r="Q165" s="109"/>
-      <c r="R165" s="109"/>
+      <c r="D165" s="97"/>
+      <c r="E165" s="97"/>
+      <c r="F165" s="97"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="97"/>
+      <c r="J165" s="97"/>
+      <c r="K165" s="97"/>
+      <c r="L165" s="97"/>
+      <c r="M165" s="97"/>
+      <c r="N165" s="97"/>
+      <c r="O165" s="97"/>
+      <c r="P165" s="97"/>
+      <c r="Q165" s="97"/>
+      <c r="R165" s="97"/>
       <c r="S165" s="92"/>
       <c r="V165" s="60"/>
     </row>
@@ -11280,21 +11268,21 @@
         <v>42</v>
       </c>
       <c r="C169" s="1"/>
-      <c r="D169" s="109"/>
-      <c r="E169" s="109"/>
-      <c r="F169" s="109"/>
-      <c r="G169" s="109"/>
-      <c r="H169" s="109"/>
-      <c r="I169" s="109"/>
-      <c r="J169" s="109"/>
-      <c r="K169" s="109"/>
-      <c r="L169" s="109"/>
-      <c r="M169" s="109"/>
-      <c r="N169" s="109"/>
-      <c r="O169" s="109"/>
-      <c r="P169" s="109"/>
-      <c r="Q169" s="109"/>
-      <c r="R169" s="109"/>
+      <c r="D169" s="97"/>
+      <c r="E169" s="97"/>
+      <c r="F169" s="97"/>
+      <c r="G169" s="97"/>
+      <c r="H169" s="97"/>
+      <c r="I169" s="97"/>
+      <c r="J169" s="97"/>
+      <c r="K169" s="97"/>
+      <c r="L169" s="97"/>
+      <c r="M169" s="97"/>
+      <c r="N169" s="97"/>
+      <c r="O169" s="97"/>
+      <c r="P169" s="97"/>
+      <c r="Q169" s="97"/>
+      <c r="R169" s="97"/>
     </row>
     <row r="170" spans="2:22">
       <c r="B170" s="58"/>
@@ -11359,21 +11347,21 @@
         <v>43</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="109"/>
-      <c r="E173" s="109"/>
-      <c r="F173" s="109"/>
-      <c r="G173" s="111"/>
-      <c r="H173" s="109"/>
-      <c r="I173" s="109"/>
-      <c r="J173" s="109"/>
-      <c r="K173" s="109"/>
-      <c r="L173" s="109"/>
-      <c r="M173" s="109"/>
-      <c r="N173" s="109"/>
-      <c r="O173" s="109"/>
-      <c r="P173" s="109"/>
-      <c r="Q173" s="109"/>
-      <c r="R173" s="109"/>
+      <c r="D173" s="97"/>
+      <c r="E173" s="97"/>
+      <c r="F173" s="97"/>
+      <c r="G173" s="98"/>
+      <c r="H173" s="97"/>
+      <c r="I173" s="97"/>
+      <c r="J173" s="97"/>
+      <c r="K173" s="97"/>
+      <c r="L173" s="97"/>
+      <c r="M173" s="97"/>
+      <c r="N173" s="97"/>
+      <c r="O173" s="97"/>
+      <c r="P173" s="97"/>
+      <c r="Q173" s="97"/>
+      <c r="R173" s="97"/>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
@@ -11438,21 +11426,21 @@
         <v>44</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="109"/>
-      <c r="E177" s="109"/>
-      <c r="F177" s="109"/>
-      <c r="G177" s="109"/>
-      <c r="H177" s="109"/>
-      <c r="I177" s="109"/>
-      <c r="J177" s="109"/>
-      <c r="K177" s="109"/>
-      <c r="L177" s="109"/>
-      <c r="M177" s="109"/>
-      <c r="N177" s="109"/>
-      <c r="O177" s="109"/>
-      <c r="P177" s="109"/>
-      <c r="Q177" s="109"/>
-      <c r="R177" s="109"/>
+      <c r="D177" s="97"/>
+      <c r="E177" s="97"/>
+      <c r="F177" s="97"/>
+      <c r="G177" s="97"/>
+      <c r="H177" s="97"/>
+      <c r="I177" s="97"/>
+      <c r="J177" s="97"/>
+      <c r="K177" s="97"/>
+      <c r="L177" s="97"/>
+      <c r="M177" s="97"/>
+      <c r="N177" s="97"/>
+      <c r="O177" s="97"/>
+      <c r="P177" s="97"/>
+      <c r="Q177" s="97"/>
+      <c r="R177" s="97"/>
     </row>
     <row r="178" spans="2:18">
       <c r="B178" s="58"/>
@@ -11517,21 +11505,21 @@
         <v>45</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="109"/>
-      <c r="E181" s="109"/>
-      <c r="F181" s="109"/>
-      <c r="G181" s="111"/>
-      <c r="H181" s="109"/>
-      <c r="I181" s="109"/>
-      <c r="J181" s="109"/>
-      <c r="K181" s="109"/>
-      <c r="L181" s="109"/>
-      <c r="M181" s="109"/>
-      <c r="N181" s="109"/>
-      <c r="O181" s="109"/>
-      <c r="P181" s="109"/>
-      <c r="Q181" s="109"/>
-      <c r="R181" s="109"/>
+      <c r="D181" s="97"/>
+      <c r="E181" s="97"/>
+      <c r="F181" s="97"/>
+      <c r="G181" s="98"/>
+      <c r="H181" s="97"/>
+      <c r="I181" s="97"/>
+      <c r="J181" s="97"/>
+      <c r="K181" s="97"/>
+      <c r="L181" s="97"/>
+      <c r="M181" s="97"/>
+      <c r="N181" s="97"/>
+      <c r="O181" s="97"/>
+      <c r="P181" s="97"/>
+      <c r="Q181" s="97"/>
+      <c r="R181" s="97"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
@@ -11596,21 +11584,21 @@
         <v>46</v>
       </c>
       <c r="C185" s="1"/>
-      <c r="D185" s="109"/>
-      <c r="E185" s="109"/>
-      <c r="F185" s="109"/>
-      <c r="G185" s="109"/>
-      <c r="H185" s="109"/>
-      <c r="I185" s="109"/>
-      <c r="J185" s="109"/>
-      <c r="K185" s="109"/>
-      <c r="L185" s="109"/>
-      <c r="M185" s="109"/>
-      <c r="N185" s="109"/>
-      <c r="O185" s="109"/>
-      <c r="P185" s="109"/>
-      <c r="Q185" s="109"/>
-      <c r="R185" s="109"/>
+      <c r="D185" s="97"/>
+      <c r="E185" s="97"/>
+      <c r="F185" s="97"/>
+      <c r="G185" s="97"/>
+      <c r="H185" s="97"/>
+      <c r="I185" s="97"/>
+      <c r="J185" s="97"/>
+      <c r="K185" s="97"/>
+      <c r="L185" s="97"/>
+      <c r="M185" s="97"/>
+      <c r="N185" s="97"/>
+      <c r="O185" s="97"/>
+      <c r="P185" s="97"/>
+      <c r="Q185" s="97"/>
+      <c r="R185" s="97"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="58"/>
@@ -11675,21 +11663,21 @@
         <v>47</v>
       </c>
       <c r="C189" s="1"/>
-      <c r="D189" s="109"/>
-      <c r="E189" s="109"/>
-      <c r="F189" s="109"/>
-      <c r="G189" s="109"/>
-      <c r="H189" s="109"/>
-      <c r="I189" s="109"/>
-      <c r="J189" s="109"/>
-      <c r="K189" s="109"/>
-      <c r="L189" s="109"/>
-      <c r="M189" s="109"/>
-      <c r="N189" s="109"/>
-      <c r="O189" s="109"/>
-      <c r="P189" s="109"/>
-      <c r="Q189" s="109"/>
-      <c r="R189" s="109"/>
+      <c r="D189" s="97"/>
+      <c r="E189" s="97"/>
+      <c r="F189" s="97"/>
+      <c r="G189" s="97"/>
+      <c r="H189" s="97"/>
+      <c r="I189" s="97"/>
+      <c r="J189" s="97"/>
+      <c r="K189" s="97"/>
+      <c r="L189" s="97"/>
+      <c r="M189" s="97"/>
+      <c r="N189" s="97"/>
+      <c r="O189" s="97"/>
+      <c r="P189" s="97"/>
+      <c r="Q189" s="97"/>
+      <c r="R189" s="97"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
@@ -11754,21 +11742,21 @@
         <v>48</v>
       </c>
       <c r="C193" s="1"/>
-      <c r="D193" s="109"/>
-      <c r="E193" s="109"/>
-      <c r="F193" s="109"/>
-      <c r="G193" s="111"/>
-      <c r="H193" s="109"/>
-      <c r="I193" s="109"/>
-      <c r="J193" s="109"/>
-      <c r="K193" s="109"/>
-      <c r="L193" s="109"/>
-      <c r="M193" s="109"/>
-      <c r="N193" s="109"/>
-      <c r="O193" s="109"/>
-      <c r="P193" s="109"/>
-      <c r="Q193" s="109"/>
-      <c r="R193" s="109"/>
+      <c r="D193" s="97"/>
+      <c r="E193" s="97"/>
+      <c r="F193" s="97"/>
+      <c r="G193" s="98"/>
+      <c r="H193" s="97"/>
+      <c r="I193" s="97"/>
+      <c r="J193" s="97"/>
+      <c r="K193" s="97"/>
+      <c r="L193" s="97"/>
+      <c r="M193" s="97"/>
+      <c r="N193" s="97"/>
+      <c r="O193" s="97"/>
+      <c r="P193" s="97"/>
+      <c r="Q193" s="97"/>
+      <c r="R193" s="97"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="58"/>
@@ -11833,21 +11821,21 @@
         <v>49</v>
       </c>
       <c r="C197" s="1"/>
-      <c r="D197" s="109"/>
-      <c r="E197" s="109"/>
-      <c r="F197" s="109"/>
-      <c r="G197" s="111"/>
-      <c r="H197" s="109"/>
-      <c r="I197" s="109"/>
-      <c r="J197" s="109"/>
-      <c r="K197" s="109"/>
-      <c r="L197" s="109"/>
-      <c r="M197" s="109"/>
-      <c r="N197" s="109"/>
-      <c r="O197" s="109"/>
-      <c r="P197" s="109"/>
-      <c r="Q197" s="109"/>
-      <c r="R197" s="109"/>
+      <c r="D197" s="97"/>
+      <c r="E197" s="97"/>
+      <c r="F197" s="97"/>
+      <c r="G197" s="98"/>
+      <c r="H197" s="97"/>
+      <c r="I197" s="97"/>
+      <c r="J197" s="97"/>
+      <c r="K197" s="97"/>
+      <c r="L197" s="97"/>
+      <c r="M197" s="97"/>
+      <c r="N197" s="97"/>
+      <c r="O197" s="97"/>
+      <c r="P197" s="97"/>
+      <c r="Q197" s="97"/>
+      <c r="R197" s="97"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
@@ -11912,21 +11900,21 @@
         <v>50</v>
       </c>
       <c r="C201" s="1"/>
-      <c r="D201" s="109"/>
-      <c r="E201" s="109"/>
-      <c r="F201" s="109"/>
-      <c r="G201" s="111"/>
-      <c r="H201" s="109"/>
-      <c r="I201" s="109"/>
-      <c r="J201" s="109"/>
-      <c r="K201" s="109"/>
-      <c r="L201" s="109"/>
-      <c r="M201" s="109"/>
-      <c r="N201" s="109"/>
-      <c r="O201" s="109"/>
-      <c r="P201" s="109"/>
-      <c r="Q201" s="109"/>
-      <c r="R201" s="109"/>
+      <c r="D201" s="97"/>
+      <c r="E201" s="97"/>
+      <c r="F201" s="97"/>
+      <c r="G201" s="98"/>
+      <c r="H201" s="97"/>
+      <c r="I201" s="97"/>
+      <c r="J201" s="97"/>
+      <c r="K201" s="97"/>
+      <c r="L201" s="97"/>
+      <c r="M201" s="97"/>
+      <c r="N201" s="97"/>
+      <c r="O201" s="97"/>
+      <c r="P201" s="97"/>
+      <c r="Q201" s="97"/>
+      <c r="R201" s="97"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="58"/>
@@ -11991,21 +11979,21 @@
         <v>51</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="109"/>
-      <c r="E205" s="109"/>
-      <c r="F205" s="109"/>
-      <c r="G205" s="111"/>
-      <c r="H205" s="109"/>
-      <c r="I205" s="109"/>
-      <c r="J205" s="109"/>
-      <c r="K205" s="109"/>
-      <c r="L205" s="109"/>
-      <c r="M205" s="109"/>
-      <c r="N205" s="109"/>
-      <c r="O205" s="109"/>
-      <c r="P205" s="109"/>
-      <c r="Q205" s="109"/>
-      <c r="R205" s="109"/>
+      <c r="D205" s="97"/>
+      <c r="E205" s="97"/>
+      <c r="F205" s="97"/>
+      <c r="G205" s="98"/>
+      <c r="H205" s="97"/>
+      <c r="I205" s="97"/>
+      <c r="J205" s="97"/>
+      <c r="K205" s="97"/>
+      <c r="L205" s="97"/>
+      <c r="M205" s="97"/>
+      <c r="N205" s="97"/>
+      <c r="O205" s="97"/>
+      <c r="P205" s="97"/>
+      <c r="Q205" s="97"/>
+      <c r="R205" s="97"/>
     </row>
     <row r="206" spans="2:18">
       <c r="B206" s="58"/>
@@ -12070,21 +12058,21 @@
         <v>52</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="109"/>
-      <c r="E209" s="109"/>
-      <c r="F209" s="109"/>
-      <c r="G209" s="111"/>
-      <c r="H209" s="109"/>
-      <c r="I209" s="109"/>
-      <c r="J209" s="109"/>
-      <c r="K209" s="109"/>
-      <c r="L209" s="109"/>
-      <c r="M209" s="109"/>
-      <c r="N209" s="109"/>
-      <c r="O209" s="109"/>
-      <c r="P209" s="109"/>
-      <c r="Q209" s="109"/>
-      <c r="R209" s="109"/>
+      <c r="D209" s="97"/>
+      <c r="E209" s="97"/>
+      <c r="F209" s="97"/>
+      <c r="G209" s="98"/>
+      <c r="H209" s="97"/>
+      <c r="I209" s="97"/>
+      <c r="J209" s="97"/>
+      <c r="K209" s="97"/>
+      <c r="L209" s="97"/>
+      <c r="M209" s="97"/>
+      <c r="N209" s="97"/>
+      <c r="O209" s="97"/>
+      <c r="P209" s="97"/>
+      <c r="Q209" s="97"/>
+      <c r="R209" s="97"/>
     </row>
     <row r="210" spans="2:18">
       <c r="B210" s="58"/>
@@ -12149,21 +12137,21 @@
         <v>53</v>
       </c>
       <c r="C213" s="1"/>
-      <c r="D213" s="109"/>
-      <c r="E213" s="109"/>
-      <c r="F213" s="109"/>
-      <c r="G213" s="111"/>
-      <c r="H213" s="109"/>
-      <c r="I213" s="109"/>
-      <c r="J213" s="109"/>
-      <c r="K213" s="109"/>
-      <c r="L213" s="109"/>
-      <c r="M213" s="109"/>
-      <c r="N213" s="109"/>
-      <c r="O213" s="109"/>
-      <c r="P213" s="109"/>
-      <c r="Q213" s="109"/>
-      <c r="R213" s="109"/>
+      <c r="D213" s="97"/>
+      <c r="E213" s="97"/>
+      <c r="F213" s="97"/>
+      <c r="G213" s="98"/>
+      <c r="H213" s="97"/>
+      <c r="I213" s="97"/>
+      <c r="J213" s="97"/>
+      <c r="K213" s="97"/>
+      <c r="L213" s="97"/>
+      <c r="M213" s="97"/>
+      <c r="N213" s="97"/>
+      <c r="O213" s="97"/>
+      <c r="P213" s="97"/>
+      <c r="Q213" s="97"/>
+      <c r="R213" s="97"/>
     </row>
     <row r="214" spans="2:18">
       <c r="B214" s="58"/>
@@ -12228,21 +12216,21 @@
         <v>54</v>
       </c>
       <c r="C217" s="1"/>
-      <c r="D217" s="109"/>
-      <c r="E217" s="109"/>
-      <c r="F217" s="109"/>
-      <c r="G217" s="111"/>
-      <c r="H217" s="109"/>
-      <c r="I217" s="109"/>
-      <c r="J217" s="109"/>
-      <c r="K217" s="109"/>
-      <c r="L217" s="109"/>
-      <c r="M217" s="109"/>
-      <c r="N217" s="109"/>
-      <c r="O217" s="109"/>
-      <c r="P217" s="109"/>
-      <c r="Q217" s="109"/>
-      <c r="R217" s="109"/>
+      <c r="D217" s="97"/>
+      <c r="E217" s="97"/>
+      <c r="F217" s="97"/>
+      <c r="G217" s="98"/>
+      <c r="H217" s="97"/>
+      <c r="I217" s="97"/>
+      <c r="J217" s="97"/>
+      <c r="K217" s="97"/>
+      <c r="L217" s="97"/>
+      <c r="M217" s="97"/>
+      <c r="N217" s="97"/>
+      <c r="O217" s="97"/>
+      <c r="P217" s="97"/>
+      <c r="Q217" s="97"/>
+      <c r="R217" s="97"/>
     </row>
     <row r="218" spans="2:18">
       <c r="B218" s="58"/>
@@ -12307,21 +12295,21 @@
         <v>55</v>
       </c>
       <c r="C221" s="1"/>
-      <c r="D221" s="109"/>
-      <c r="E221" s="109"/>
-      <c r="F221" s="109"/>
-      <c r="G221" s="111"/>
-      <c r="H221" s="109"/>
-      <c r="I221" s="109"/>
-      <c r="J221" s="109"/>
-      <c r="K221" s="109"/>
-      <c r="L221" s="109"/>
-      <c r="M221" s="109"/>
-      <c r="N221" s="109"/>
-      <c r="O221" s="109"/>
-      <c r="P221" s="109"/>
-      <c r="Q221" s="109"/>
-      <c r="R221" s="109"/>
+      <c r="D221" s="97"/>
+      <c r="E221" s="97"/>
+      <c r="F221" s="97"/>
+      <c r="G221" s="98"/>
+      <c r="H221" s="97"/>
+      <c r="I221" s="97"/>
+      <c r="J221" s="97"/>
+      <c r="K221" s="97"/>
+      <c r="L221" s="97"/>
+      <c r="M221" s="97"/>
+      <c r="N221" s="97"/>
+      <c r="O221" s="97"/>
+      <c r="P221" s="97"/>
+      <c r="Q221" s="97"/>
+      <c r="R221" s="97"/>
     </row>
     <row r="222" spans="2:18">
       <c r="B222" s="58"/>
@@ -12386,21 +12374,21 @@
         <v>56</v>
       </c>
       <c r="C225" s="1"/>
-      <c r="D225" s="109"/>
-      <c r="E225" s="109"/>
-      <c r="F225" s="109"/>
-      <c r="G225" s="111"/>
-      <c r="H225" s="109"/>
-      <c r="I225" s="109"/>
-      <c r="J225" s="109"/>
-      <c r="K225" s="109"/>
-      <c r="L225" s="109"/>
-      <c r="M225" s="109"/>
-      <c r="N225" s="109"/>
-      <c r="O225" s="109"/>
-      <c r="P225" s="109"/>
-      <c r="Q225" s="109"/>
-      <c r="R225" s="109"/>
+      <c r="D225" s="97"/>
+      <c r="E225" s="97"/>
+      <c r="F225" s="97"/>
+      <c r="G225" s="98"/>
+      <c r="H225" s="97"/>
+      <c r="I225" s="97"/>
+      <c r="J225" s="97"/>
+      <c r="K225" s="97"/>
+      <c r="L225" s="97"/>
+      <c r="M225" s="97"/>
+      <c r="N225" s="97"/>
+      <c r="O225" s="97"/>
+      <c r="P225" s="97"/>
+      <c r="Q225" s="97"/>
+      <c r="R225" s="97"/>
     </row>
     <row r="226" spans="2:18">
       <c r="B226" s="58"/>
@@ -12465,21 +12453,21 @@
         <v>57</v>
       </c>
       <c r="C229" s="1"/>
-      <c r="D229" s="109"/>
-      <c r="E229" s="109"/>
-      <c r="F229" s="109"/>
-      <c r="G229" s="111"/>
-      <c r="H229" s="109"/>
-      <c r="I229" s="109"/>
-      <c r="J229" s="109"/>
-      <c r="K229" s="109"/>
-      <c r="L229" s="109"/>
-      <c r="M229" s="109"/>
-      <c r="N229" s="109"/>
-      <c r="O229" s="109"/>
-      <c r="P229" s="109"/>
-      <c r="Q229" s="109"/>
-      <c r="R229" s="109"/>
+      <c r="D229" s="97"/>
+      <c r="E229" s="97"/>
+      <c r="F229" s="97"/>
+      <c r="G229" s="98"/>
+      <c r="H229" s="97"/>
+      <c r="I229" s="97"/>
+      <c r="J229" s="97"/>
+      <c r="K229" s="97"/>
+      <c r="L229" s="97"/>
+      <c r="M229" s="97"/>
+      <c r="N229" s="97"/>
+      <c r="O229" s="97"/>
+      <c r="P229" s="97"/>
+      <c r="Q229" s="97"/>
+      <c r="R229" s="97"/>
     </row>
     <row r="230" spans="2:18">
       <c r="B230" s="58"/>
@@ -12544,21 +12532,21 @@
         <v>58</v>
       </c>
       <c r="C233" s="1"/>
-      <c r="D233" s="109"/>
-      <c r="E233" s="109"/>
-      <c r="F233" s="109"/>
-      <c r="G233" s="111"/>
-      <c r="H233" s="109"/>
-      <c r="I233" s="109"/>
-      <c r="J233" s="109"/>
-      <c r="K233" s="109"/>
-      <c r="L233" s="109"/>
-      <c r="M233" s="109"/>
-      <c r="N233" s="109"/>
-      <c r="O233" s="109"/>
-      <c r="P233" s="109"/>
-      <c r="Q233" s="109"/>
-      <c r="R233" s="109"/>
+      <c r="D233" s="97"/>
+      <c r="E233" s="97"/>
+      <c r="F233" s="97"/>
+      <c r="G233" s="98"/>
+      <c r="H233" s="97"/>
+      <c r="I233" s="97"/>
+      <c r="J233" s="97"/>
+      <c r="K233" s="97"/>
+      <c r="L233" s="97"/>
+      <c r="M233" s="97"/>
+      <c r="N233" s="97"/>
+      <c r="O233" s="97"/>
+      <c r="P233" s="97"/>
+      <c r="Q233" s="97"/>
+      <c r="R233" s="97"/>
     </row>
     <row r="234" spans="2:18">
       <c r="B234" s="58"/>
@@ -12623,21 +12611,21 @@
         <v>59</v>
       </c>
       <c r="C237" s="1"/>
-      <c r="D237" s="109"/>
-      <c r="E237" s="109"/>
-      <c r="F237" s="109"/>
-      <c r="G237" s="111"/>
-      <c r="H237" s="109"/>
-      <c r="I237" s="109"/>
-      <c r="J237" s="109"/>
-      <c r="K237" s="109"/>
-      <c r="L237" s="109"/>
-      <c r="M237" s="109"/>
-      <c r="N237" s="109"/>
-      <c r="O237" s="109"/>
-      <c r="P237" s="109"/>
-      <c r="Q237" s="109"/>
-      <c r="R237" s="109"/>
+      <c r="D237" s="97"/>
+      <c r="E237" s="97"/>
+      <c r="F237" s="97"/>
+      <c r="G237" s="98"/>
+      <c r="H237" s="97"/>
+      <c r="I237" s="97"/>
+      <c r="J237" s="97"/>
+      <c r="K237" s="97"/>
+      <c r="L237" s="97"/>
+      <c r="M237" s="97"/>
+      <c r="N237" s="97"/>
+      <c r="O237" s="97"/>
+      <c r="P237" s="97"/>
+      <c r="Q237" s="97"/>
+      <c r="R237" s="97"/>
     </row>
     <row r="238" spans="2:18">
       <c r="B238" s="58"/>
@@ -12702,21 +12690,21 @@
         <v>60</v>
       </c>
       <c r="C241" s="1"/>
-      <c r="D241" s="109"/>
-      <c r="E241" s="109"/>
-      <c r="F241" s="109"/>
-      <c r="G241" s="111"/>
-      <c r="H241" s="109"/>
-      <c r="I241" s="109"/>
-      <c r="J241" s="109"/>
-      <c r="K241" s="109"/>
-      <c r="L241" s="109"/>
-      <c r="M241" s="109"/>
-      <c r="N241" s="109"/>
-      <c r="O241" s="109"/>
-      <c r="P241" s="109"/>
-      <c r="Q241" s="109"/>
-      <c r="R241" s="109"/>
+      <c r="D241" s="97"/>
+      <c r="E241" s="97"/>
+      <c r="F241" s="97"/>
+      <c r="G241" s="98"/>
+      <c r="H241" s="97"/>
+      <c r="I241" s="97"/>
+      <c r="J241" s="97"/>
+      <c r="K241" s="97"/>
+      <c r="L241" s="97"/>
+      <c r="M241" s="97"/>
+      <c r="N241" s="97"/>
+      <c r="O241" s="97"/>
+      <c r="P241" s="97"/>
+      <c r="Q241" s="97"/>
+      <c r="R241" s="97"/>
     </row>
     <row r="242" spans="2:18">
       <c r="B242" s="58"/>
@@ -12759,35 +12747,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="187" priority="39">
+    <cfRule type="expression" dxfId="187" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="185" priority="37">
+    <cfRule type="expression" dxfId="185" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="183" priority="35">
+    <cfRule type="expression" dxfId="183" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="181" priority="49">
+    <cfRule type="expression" dxfId="181" priority="50">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="49">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="50">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
@@ -12799,11 +12787,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="177" priority="32">
+    <cfRule type="expression" dxfId="177" priority="31">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="31">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -12815,35 +12803,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="173" priority="27">
+    <cfRule type="expression" dxfId="173" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="28">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:R47">
+    <cfRule type="expression" dxfId="171" priority="25">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="171" priority="26">
+  <conditionalFormatting sqref="D51:R51">
+    <cfRule type="expression" dxfId="169" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="25">
+    <cfRule type="expression" dxfId="168" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="169" priority="23">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="24">
+  <conditionalFormatting sqref="D55:R55">
+    <cfRule type="expression" dxfId="167" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="167" priority="21">
+    <cfRule type="expression" dxfId="166" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -12855,27 +12843,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="163" priority="17">
+    <cfRule type="expression" dxfId="163" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="161" priority="15">
+    <cfRule type="expression" dxfId="161" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="159" priority="13">
+    <cfRule type="expression" dxfId="159" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
@@ -12887,19 +12875,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="155" priority="10">
+    <cfRule type="expression" dxfId="155" priority="9">
+      <formula>顯示注音輸入</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="9">
-      <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="153" priority="7">
+    <cfRule type="expression" dxfId="153" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -12991,7 +12979,7 @@
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81" t="s">
-        <v>537</v>
+        <v>472</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
@@ -13013,31 +13001,31 @@
         <v>270</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="F4" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>478</v>
+      </c>
+      <c r="I4" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="82" t="s">
-        <v>538</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>544</v>
-      </c>
-      <c r="I4" s="82" t="s">
+      <c r="J4" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="82" t="s">
         <v>278</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>279</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>285</v>
       </c>
       <c r="N4" s="82"/>
       <c r="O4" s="82"/>
@@ -13093,34 +13081,34 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>561</v>
+        <v>492</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>562</v>
+        <v>493</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>565</v>
+        <v>496</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -13243,43 +13231,43 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J12" s="82"/>
       <c r="K12" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="L12" s="82" t="s">
         <v>264</v>
       </c>
       <c r="M12" s="82"/>
       <c r="N12" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="P12" s="82"/>
       <c r="Q12" s="82" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="R12" s="82" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="S12" s="91"/>
       <c r="V12" s="104"/>
@@ -13299,7 +13287,7 @@
         <v>218</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="H13" s="97" t="s">
         <v>219</v>
@@ -13340,43 +13328,43 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="83" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>567</v>
+        <v>498</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>568</v>
+        <v>499</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>569</v>
+        <v>500</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>570</v>
+        <v>501</v>
       </c>
       <c r="I14" s="83" t="s">
-        <v>571</v>
+        <v>502</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="83" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="M14" s="83"/>
       <c r="N14" s="83" t="s">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="O14" s="83" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="P14" s="83"/>
       <c r="Q14" s="83" t="s">
-        <v>576</v>
+        <v>507</v>
       </c>
       <c r="R14" s="83" t="s">
-        <v>577</v>
+        <v>508</v>
       </c>
       <c r="S14" s="94"/>
       <c r="V14" s="104"/>
@@ -13407,47 +13395,47 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="82" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="M16" s="82" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="Q16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="R16" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="104"/>
@@ -13458,7 +13446,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="100" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="E17" s="97" t="s">
         <v>227</v>
@@ -13508,47 +13496,47 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>579</v>
+        <v>510</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="K18" s="83"/>
       <c r="L18" s="83" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="Q18" s="83" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="R18" s="83" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="104"/>
@@ -13566,12 +13554,12 @@
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
       <c r="M19" s="81" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="N19" s="81"/>
       <c r="O19" s="81"/>
       <c r="P19" s="81" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
@@ -13584,38 +13572,38 @@
         <v>270</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="82" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="M20" s="82" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="N20" s="82" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="82" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
@@ -13654,7 +13642,7 @@
         <v>233</v>
       </c>
       <c r="M21" s="101" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="N21" s="97" t="s">
         <v>234</v>
@@ -13678,41 +13666,41 @@
       <c r="B22" s="58"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="K22" s="83"/>
       <c r="L22" s="83" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="M22" s="83" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="O22" s="83" t="s">
-        <v>504</v>
+        <v>439</v>
       </c>
       <c r="P22" s="83" t="s">
-        <v>505</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="83" t="s">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
@@ -13722,12 +13710,12 @@
       <c r="B23" s="63"/>
       <c r="C23" s="88"/>
       <c r="D23" s="81" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
@@ -13747,37 +13735,37 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="82" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="I24" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="J24" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="K24" s="82" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="L24" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="M24" s="82" t="s">
         <v>266</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="O24" s="82"/>
       <c r="P24" s="82"/>
@@ -13804,7 +13792,7 @@
         <v>237</v>
       </c>
       <c r="H25" s="97" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="I25" s="100" t="s">
         <v>216</v>
@@ -13836,37 +13824,37 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="83" t="s">
-        <v>505</v>
+        <v>440</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>591</v>
+        <v>522</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>592</v>
+        <v>523</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="I26" s="83" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="J26" s="83" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="K26" s="83" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="L26" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="M26" s="83" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
       <c r="O26" s="83"/>
       <c r="P26" s="83"/>
@@ -14009,47 +13997,47 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>264</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M32" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="N32" s="82" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="O32" s="82" t="s">
         <v>267</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="S32" s="91"/>
       <c r="U32" s="67" t="str">
@@ -14079,7 +14067,7 @@
         <v>227</v>
       </c>
       <c r="I33" s="100" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="J33" s="97" t="s">
         <v>221</v>
@@ -14114,47 +14102,47 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="N34" s="83" t="s">
-        <v>596</v>
+        <v>527</v>
       </c>
       <c r="O34" s="83" t="s">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="P34" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>599</v>
+        <v>530</v>
       </c>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
@@ -14185,38 +14173,38 @@
       <c r="B36" s="56"/>
       <c r="D36" s="82"/>
       <c r="E36" s="82" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="H36" s="82" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="I36" s="82" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="J36" s="82" t="s">
         <v>268</v>
       </c>
       <c r="K36" s="82"/>
       <c r="L36" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="N36" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="P36" s="82" t="s">
         <v>321</v>
-      </c>
-      <c r="M36" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="N36" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="O36" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="P36" s="82" t="s">
-        <v>382</v>
       </c>
       <c r="Q36" s="82"/>
       <c r="R36" s="82"/>
@@ -14256,7 +14244,7 @@
         <v>233</v>
       </c>
       <c r="M37" s="102" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="N37" s="100" t="s">
         <v>216</v>
@@ -14278,38 +14266,38 @@
       <c r="B38" s="58"/>
       <c r="D38" s="83"/>
       <c r="E38" s="83" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>603</v>
+        <v>534</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>605</v>
+        <v>536</v>
       </c>
       <c r="K38" s="83"/>
       <c r="L38" s="83" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="M38" s="83" t="s">
-        <v>606</v>
+        <v>537</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="P38" s="83" t="s">
-        <v>608</v>
+        <v>539</v>
       </c>
       <c r="Q38" s="83"/>
       <c r="R38" s="83"/>
@@ -14424,47 +14412,47 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="G44" s="82" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="K44" s="82" t="s">
         <v>261</v>
       </c>
       <c r="L44" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="M44" s="82" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="N44" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="O44" s="82" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="P44" s="82" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="82"/>
       <c r="R44" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="S44" s="91"/>
       <c r="V44" s="60"/>
@@ -14525,47 +14513,47 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="83" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>609</v>
+        <v>540</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>610</v>
+        <v>541</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="J46" s="83" t="s">
-        <v>611</v>
+        <v>542</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="L46" s="83" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="M46" s="83" t="s">
-        <v>613</v>
+        <v>544</v>
       </c>
       <c r="N46" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="O46" s="83" t="s">
-        <v>614</v>
+        <v>545</v>
       </c>
       <c r="P46" s="83" t="s">
-        <v>531</v>
+        <v>466</v>
       </c>
       <c r="Q46" s="83"/>
       <c r="R46" s="83" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="S46" s="94"/>
       <c r="V46" s="60"/>
@@ -14595,45 +14583,45 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="F48" s="82"/>
       <c r="G48" s="82" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="H48" s="82" t="s">
         <v>261</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="J48" s="82" t="s">
         <v>264</v>
       </c>
       <c r="K48" s="82" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="L48" s="82"/>
       <c r="M48" s="82" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="N48" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="O48" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P48" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="Q48" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="R48" s="82" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="S48" s="91"/>
       <c r="V48" s="60"/>
@@ -14694,45 +14682,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="83" t="s">
-        <v>574</v>
+        <v>505</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="F50" s="83"/>
       <c r="G50" s="83" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>612</v>
+        <v>543</v>
       </c>
       <c r="I50" s="83" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="J50" s="83" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="K50" s="83" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="L50" s="83"/>
       <c r="M50" s="83" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="N50" s="83" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="O50" s="83" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="P50" s="83" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="R50" s="83" t="s">
-        <v>615</v>
+        <v>546</v>
       </c>
       <c r="S50" s="94"/>
       <c r="V50" s="60"/>
@@ -14760,32 +14748,32 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="82" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="82" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="H52" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="I52" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="I52" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="J52" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="M52" s="82" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="N52" s="82"/>
       <c r="O52" s="82"/>
@@ -14810,7 +14798,7 @@
         <v>233</v>
       </c>
       <c r="G53" s="102" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="H53" s="100" t="s">
         <v>216</v>
@@ -14843,32 +14831,32 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>616</v>
+        <v>547</v>
       </c>
       <c r="E54" s="83"/>
       <c r="F54" s="83" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>606</v>
+        <v>537</v>
       </c>
       <c r="H54" s="83" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
       <c r="J54" s="83" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>617</v>
+        <v>548</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>618</v>
+        <v>549</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="83"/>
@@ -18709,194 +18697,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="143" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="142" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="141" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="140" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="43" priority="39">
+    <cfRule type="expression" dxfId="139" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="137" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="135" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="133" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="131" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="129" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="128" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="127" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="125" priority="28">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="26" priority="25">
+    <cfRule type="expression" dxfId="123" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="122" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="121" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="119" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="117" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="116" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="115" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="113" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="111" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="109" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="107" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="106" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="105" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="103" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="102" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="101" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="46">
+    <cfRule type="expression" dxfId="100" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="3" priority="43">
+    <cfRule type="expression" dxfId="99" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="44">
+    <cfRule type="expression" dxfId="98" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="1" priority="41">
+    <cfRule type="expression" dxfId="97" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="42">
+    <cfRule type="expression" dxfId="96" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18957,7 +18945,7 @@
       <c r="G3" s="81"/>
       <c r="H3" s="81"/>
       <c r="I3" s="81" t="s">
-        <v>537</v>
+        <v>472</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="81"/>
@@ -18979,31 +18967,31 @@
         <v>270</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="F4" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>478</v>
+      </c>
+      <c r="I4" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="82" t="s">
-        <v>538</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>544</v>
-      </c>
-      <c r="I4" s="82" t="s">
+      <c r="J4" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="82" t="s">
         <v>278</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>279</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>285</v>
       </c>
       <c r="N4" s="82"/>
       <c r="O4" s="82"/>
@@ -19059,34 +19047,34 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -19209,43 +19197,43 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J12" s="82"/>
       <c r="K12" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="L12" s="82" t="s">
         <v>264</v>
       </c>
       <c r="M12" s="82"/>
       <c r="N12" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="P12" s="82"/>
       <c r="Q12" s="82" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="R12" s="82" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="S12" s="91"/>
       <c r="V12" s="104"/>
@@ -19265,7 +19253,7 @@
         <v>218</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="H13" s="97" t="s">
         <v>219</v>
@@ -19306,43 +19294,43 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="83" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>415</v>
+        <v>350</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="I14" s="83" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="83" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="M14" s="83"/>
       <c r="N14" s="83" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="O14" s="83" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="P14" s="83"/>
       <c r="Q14" s="83" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="R14" s="83" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
       <c r="S14" s="94"/>
       <c r="V14" s="104"/>
@@ -19373,47 +19361,47 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="82" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="M16" s="82" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="Q16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="R16" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="104"/>
@@ -19424,7 +19412,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="100" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="E17" s="97" t="s">
         <v>227</v>
@@ -19474,47 +19462,47 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>424</v>
+        <v>359</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="K18" s="83"/>
       <c r="L18" s="83" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>431</v>
+        <v>366</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="83" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="R18" s="83" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="104"/>
@@ -19532,12 +19520,12 @@
       <c r="K19" s="81"/>
       <c r="L19" s="81"/>
       <c r="M19" s="81" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="N19" s="81"/>
       <c r="O19" s="81"/>
       <c r="P19" s="81" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
@@ -19550,38 +19538,38 @@
         <v>270</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="82" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="M20" s="82" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="N20" s="82" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="82" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
@@ -19620,7 +19608,7 @@
         <v>233</v>
       </c>
       <c r="M21" s="101" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="N21" s="97" t="s">
         <v>234</v>
@@ -19644,41 +19632,41 @@
       <c r="B22" s="58"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="K22" s="83"/>
       <c r="L22" s="83" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="M22" s="83" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="O22" s="83" t="s">
-        <v>437</v>
+        <v>372</v>
       </c>
       <c r="P22" s="83" t="s">
-        <v>438</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="83" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
@@ -19688,12 +19676,12 @@
       <c r="B23" s="63"/>
       <c r="C23" s="88"/>
       <c r="D23" s="81" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
@@ -19713,37 +19701,37 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="82" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H24" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="I24" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="J24" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="K24" s="82" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="L24" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="M24" s="82" t="s">
         <v>266</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="O24" s="82"/>
       <c r="P24" s="82"/>
@@ -19770,7 +19758,7 @@
         <v>237</v>
       </c>
       <c r="H25" s="97" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="I25" s="100" t="s">
         <v>216</v>
@@ -19802,37 +19790,37 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="83" t="s">
-        <v>438</v>
+        <v>373</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>439</v>
+        <v>374</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>440</v>
+        <v>375</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>441</v>
+        <v>376</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>424</v>
+        <v>359</v>
       </c>
       <c r="I26" s="83" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="J26" s="83" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="K26" s="83" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
       <c r="L26" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="M26" s="83" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>445</v>
+        <v>380</v>
       </c>
       <c r="O26" s="83"/>
       <c r="P26" s="83"/>
@@ -19975,47 +19963,47 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>264</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M32" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="N32" s="82" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="O32" s="82" t="s">
         <v>267</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="S32" s="91"/>
       <c r="U32" s="67" t="str">
@@ -20045,7 +20033,7 @@
         <v>227</v>
       </c>
       <c r="I33" s="100" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="J33" s="97" t="s">
         <v>221</v>
@@ -20080,47 +20068,47 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>424</v>
+        <v>359</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="N34" s="83" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="O34" s="83" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="P34" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
@@ -20151,38 +20139,38 @@
       <c r="B36" s="56"/>
       <c r="D36" s="82"/>
       <c r="E36" s="82" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="H36" s="82" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="I36" s="82" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="J36" s="82" t="s">
         <v>268</v>
       </c>
       <c r="K36" s="82"/>
       <c r="L36" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="N36" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="P36" s="82" t="s">
         <v>321</v>
-      </c>
-      <c r="M36" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="N36" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="O36" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="P36" s="82" t="s">
-        <v>382</v>
       </c>
       <c r="Q36" s="82"/>
       <c r="R36" s="82"/>
@@ -20222,7 +20210,7 @@
         <v>233</v>
       </c>
       <c r="M37" s="102" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="N37" s="100" t="s">
         <v>216</v>
@@ -20244,38 +20232,38 @@
       <c r="B38" s="58"/>
       <c r="D38" s="83"/>
       <c r="E38" s="83" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>451</v>
+        <v>386</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>454</v>
+        <v>389</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="K38" s="83"/>
       <c r="L38" s="83" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="M38" s="83" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>457</v>
+        <v>392</v>
       </c>
       <c r="P38" s="83" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="Q38" s="83"/>
       <c r="R38" s="83"/>
@@ -20390,47 +20378,47 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="G44" s="82" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="K44" s="82" t="s">
         <v>261</v>
       </c>
       <c r="L44" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="M44" s="82" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="N44" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="O44" s="82" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="P44" s="82" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="82"/>
       <c r="R44" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="S44" s="91"/>
       <c r="V44" s="60"/>
@@ -20491,47 +20479,47 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="83" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>460</v>
+        <v>395</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>461</v>
+        <v>396</v>
       </c>
       <c r="J46" s="83" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="L46" s="83" t="s">
-        <v>461</v>
+        <v>396</v>
       </c>
       <c r="M46" s="83" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="N46" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="O46" s="83" t="s">
-        <v>463</v>
+        <v>398</v>
       </c>
       <c r="P46" s="83" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="Q46" s="83"/>
       <c r="R46" s="83" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="S46" s="94"/>
       <c r="V46" s="60"/>
@@ -20561,45 +20549,45 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="F48" s="82"/>
       <c r="G48" s="82" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="H48" s="82" t="s">
         <v>261</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="J48" s="82" t="s">
         <v>264</v>
       </c>
       <c r="K48" s="82" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="L48" s="82"/>
       <c r="M48" s="82" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="N48" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="O48" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P48" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="Q48" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="R48" s="82" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="S48" s="91"/>
       <c r="V48" s="60"/>
@@ -20660,45 +20648,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="83" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="F50" s="83"/>
       <c r="G50" s="83" t="s">
-        <v>425</v>
+        <v>360</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>442</v>
+        <v>377</v>
       </c>
       <c r="I50" s="83" t="s">
-        <v>418</v>
+        <v>353</v>
       </c>
       <c r="J50" s="83" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="K50" s="83" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="L50" s="83"/>
       <c r="M50" s="83" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="N50" s="83" t="s">
-        <v>451</v>
+        <v>386</v>
       </c>
       <c r="O50" s="83" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="P50" s="83" t="s">
-        <v>429</v>
+        <v>364</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="R50" s="83" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="S50" s="94"/>
       <c r="V50" s="60"/>
@@ -20726,32 +20714,32 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="82" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="82" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="H52" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="I52" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="I52" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="J52" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="M52" s="82" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="N52" s="82"/>
       <c r="O52" s="82"/>
@@ -20776,7 +20764,7 @@
         <v>233</v>
       </c>
       <c r="G53" s="102" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="H53" s="100" t="s">
         <v>216</v>
@@ -20809,32 +20797,32 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="E54" s="83"/>
       <c r="F54" s="83" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="H54" s="83" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>427</v>
+        <v>362</v>
       </c>
       <c r="J54" s="83" t="s">
-        <v>461</v>
+        <v>396</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>468</v>
+        <v>403</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="83"/>
@@ -24691,91 +24679,91 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="91" priority="39">
+    <cfRule type="expression" dxfId="91" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="89" priority="37">
+    <cfRule type="expression" dxfId="89" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="87" priority="35">
+    <cfRule type="expression" dxfId="87" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="85" priority="47">
+    <cfRule type="expression" dxfId="85" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
+    <cfRule type="expression" dxfId="83" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="82" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="80" priority="31">
+    <cfRule type="expression" dxfId="81" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="32">
+    <cfRule type="expression" dxfId="80" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
+    <cfRule type="expression" dxfId="79" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="78" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="30">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="expression" dxfId="77" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="77" priority="27">
+    <cfRule type="expression" dxfId="76" priority="27">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="28">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="74" priority="25">
+    <cfRule type="expression" dxfId="75" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="26">
+    <cfRule type="expression" dxfId="74" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="73" priority="23">
+    <cfRule type="expression" dxfId="73" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="71" priority="21">
+    <cfRule type="expression" dxfId="71" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -24787,51 +24775,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="67" priority="17">
+    <cfRule type="expression" dxfId="67" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="65" priority="15">
+    <cfRule type="expression" dxfId="65" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="63" priority="13">
+    <cfRule type="expression" dxfId="63" priority="14">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="13">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="14">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
+    <cfRule type="expression" dxfId="61" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="60" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="58" priority="9">
+    <cfRule type="expression" dxfId="59" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="10">
+    <cfRule type="expression" dxfId="58" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="57" priority="7">
+    <cfRule type="expression" dxfId="57" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
@@ -24945,31 +24933,31 @@
         <v>270</v>
       </c>
       <c r="E4" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="82" t="s">
         <v>272</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>274</v>
       </c>
       <c r="G4" s="82" t="s">
         <v>263</v>
       </c>
       <c r="H4" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="J4" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="I4" s="82" t="s">
+      <c r="L4" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="82" t="s">
         <v>278</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>279</v>
-      </c>
-      <c r="K4" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="82" t="s">
-        <v>285</v>
       </c>
       <c r="N4" s="82"/>
       <c r="O4" s="82"/>
@@ -25025,34 +25013,34 @@
       <c r="B6" s="58"/>
       <c r="C6" s="85"/>
       <c r="D6" s="83" t="s">
-        <v>469</v>
+        <v>404</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>470</v>
+        <v>405</v>
       </c>
       <c r="F6" s="83" t="s">
-        <v>471</v>
+        <v>406</v>
       </c>
       <c r="G6" s="83" t="s">
-        <v>472</v>
+        <v>407</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>475</v>
+        <v>410</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>476</v>
+        <v>411</v>
       </c>
       <c r="L6" s="83" t="s">
-        <v>477</v>
+        <v>412</v>
       </c>
       <c r="M6" s="83" t="s">
-        <v>478</v>
+        <v>413</v>
       </c>
       <c r="N6" s="83"/>
       <c r="O6" s="83"/>
@@ -25172,43 +25160,43 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J12" s="82"/>
       <c r="K12" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="L12" s="82" t="s">
         <v>264</v>
       </c>
       <c r="M12" s="82"/>
       <c r="N12" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="O12" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="P12" s="82"/>
       <c r="Q12" s="82" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="R12" s="82" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="S12" s="91"/>
       <c r="V12" s="104"/>
@@ -25228,7 +25216,7 @@
         <v>218</v>
       </c>
       <c r="G13" s="100" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="H13" s="97" t="s">
         <v>219</v>
@@ -25269,43 +25257,43 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="83" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="E14" s="83" t="s">
-        <v>480</v>
+        <v>415</v>
       </c>
       <c r="F14" s="83" t="s">
-        <v>481</v>
+        <v>416</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>482</v>
+        <v>417</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>483</v>
+        <v>418</v>
       </c>
       <c r="I14" s="83" t="s">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="J14" s="83"/>
       <c r="K14" s="83" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="M14" s="83"/>
       <c r="N14" s="83" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="O14" s="83" t="s">
-        <v>488</v>
+        <v>423</v>
       </c>
       <c r="P14" s="83"/>
       <c r="Q14" s="83" t="s">
-        <v>489</v>
+        <v>424</v>
       </c>
       <c r="R14" s="83" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
       <c r="S14" s="94"/>
       <c r="V14" s="104"/>
@@ -25336,47 +25324,47 @@
     <row r="16" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K16" s="82"/>
       <c r="L16" s="82" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="M16" s="82" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="N16" s="82" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="O16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P16" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="R16" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="S16" s="91"/>
       <c r="V16" s="104"/>
@@ -25387,7 +25375,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="100" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="E17" s="97" t="s">
         <v>227</v>
@@ -25437,47 +25425,47 @@
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="83" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="G18" s="83" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="I18" s="83" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="K18" s="83"/>
       <c r="L18" s="83" t="s">
-        <v>497</v>
+        <v>432</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>498</v>
+        <v>433</v>
       </c>
       <c r="N18" s="83" t="s">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="O18" s="83" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="83" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="R18" s="83" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="S18" s="94"/>
       <c r="V18" s="104"/>
@@ -25498,7 +25486,7 @@
       <c r="N19" s="81"/>
       <c r="O19" s="81"/>
       <c r="P19" s="81" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="Q19" s="81"/>
       <c r="R19" s="81"/>
@@ -25511,38 +25499,38 @@
         <v>270</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="H20" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="J20" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="K20" s="82"/>
       <c r="L20" s="82" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="M20" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="N20" s="82" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="O20" s="82" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="P20" s="82" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="82" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="R20" s="82"/>
       <c r="S20" s="91"/>
@@ -25581,7 +25569,7 @@
         <v>233</v>
       </c>
       <c r="M21" s="101" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="N21" s="97" t="s">
         <v>234</v>
@@ -25605,41 +25593,41 @@
       <c r="B22" s="58"/>
       <c r="D22" s="83"/>
       <c r="E22" s="83" t="s">
-        <v>469</v>
+        <v>404</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>500</v>
+        <v>435</v>
       </c>
       <c r="G22" s="83" t="s">
-        <v>501</v>
+        <v>436</v>
       </c>
       <c r="H22" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="I22" s="83" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="J22" s="83" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="K22" s="83"/>
       <c r="L22" s="83" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="M22" s="83" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
       <c r="N22" s="83" t="s">
-        <v>503</v>
+        <v>438</v>
       </c>
       <c r="O22" s="83" t="s">
-        <v>504</v>
+        <v>439</v>
       </c>
       <c r="P22" s="83" t="s">
-        <v>505</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="83" t="s">
-        <v>506</v>
+        <v>441</v>
       </c>
       <c r="R22" s="83"/>
       <c r="S22" s="94"/>
@@ -25649,12 +25637,12 @@
       <c r="B23" s="63"/>
       <c r="C23" s="88"/>
       <c r="D23" s="81" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="81"/>
       <c r="G23" s="81" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
@@ -25674,37 +25662,37 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="82" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H24" s="82" t="s">
         <v>261</v>
       </c>
       <c r="I24" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="J24" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="K24" s="82" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="L24" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M24" s="82" t="s">
         <v>266</v>
       </c>
       <c r="N24" s="82" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="O24" s="82"/>
       <c r="P24" s="82"/>
@@ -25731,7 +25719,7 @@
         <v>237</v>
       </c>
       <c r="H25" s="97" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="I25" s="100" t="s">
         <v>216</v>
@@ -25763,37 +25751,37 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="83" t="s">
-        <v>505</v>
+        <v>440</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>506</v>
+        <v>441</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
       <c r="G26" s="83" t="s">
-        <v>508</v>
+        <v>443</v>
       </c>
       <c r="H26" s="83" t="s">
-        <v>509</v>
+        <v>444</v>
       </c>
       <c r="I26" s="83" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="J26" s="83" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="K26" s="83" t="s">
-        <v>510</v>
+        <v>445</v>
       </c>
       <c r="L26" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="M26" s="83" t="s">
-        <v>511</v>
+        <v>446</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="O26" s="83"/>
       <c r="P26" s="83"/>
@@ -25936,47 +25924,47 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="G32" s="82"/>
       <c r="H32" s="82" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="I32" s="82" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="J32" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="K32" s="82" t="s">
         <v>264</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M32" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="N32" s="82" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="O32" s="82" t="s">
         <v>267</v>
       </c>
       <c r="P32" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q32" s="82" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="R32" s="82" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="S32" s="91"/>
       <c r="U32" s="67" t="str">
@@ -26006,7 +25994,7 @@
         <v>227</v>
       </c>
       <c r="I33" s="100" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="J33" s="97" t="s">
         <v>221</v>
@@ -26041,47 +26029,47 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="83" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="F34" s="83" t="s">
-        <v>488</v>
+        <v>423</v>
       </c>
       <c r="G34" s="83"/>
       <c r="H34" s="83" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>491</v>
+        <v>426</v>
       </c>
       <c r="J34" s="83" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="K34" s="83" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="N34" s="83" t="s">
-        <v>513</v>
+        <v>448</v>
       </c>
       <c r="O34" s="83" t="s">
-        <v>514</v>
+        <v>449</v>
       </c>
       <c r="P34" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="Q34" s="83" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="R34" s="83" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
       <c r="S34" s="94"/>
       <c r="V34" s="60"/>
@@ -26112,38 +26100,38 @@
       <c r="B36" s="56"/>
       <c r="D36" s="82"/>
       <c r="E36" s="82" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="H36" s="82" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="I36" s="82" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="J36" s="82" t="s">
         <v>268</v>
       </c>
       <c r="K36" s="82"/>
       <c r="L36" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="N36" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="P36" s="82" t="s">
         <v>321</v>
-      </c>
-      <c r="M36" s="82" t="s">
-        <v>398</v>
-      </c>
-      <c r="N36" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="O36" s="82" t="s">
-        <v>353</v>
-      </c>
-      <c r="P36" s="82" t="s">
-        <v>382</v>
       </c>
       <c r="Q36" s="82"/>
       <c r="R36" s="82"/>
@@ -26183,7 +26171,7 @@
         <v>233</v>
       </c>
       <c r="M37" s="102" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="N37" s="100" t="s">
         <v>216</v>
@@ -26205,38 +26193,38 @@
       <c r="B38" s="58"/>
       <c r="D38" s="83"/>
       <c r="E38" s="83" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
       <c r="H38" s="83" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="J38" s="83" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="K38" s="83"/>
       <c r="L38" s="83" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="M38" s="83" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="N38" s="83" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="O38" s="83" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="P38" s="83" t="s">
-        <v>525</v>
+        <v>460</v>
       </c>
       <c r="Q38" s="83"/>
       <c r="R38" s="83"/>
@@ -26351,47 +26339,47 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="F44" s="82" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="G44" s="82" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="H44" s="82" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I44" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="J44" s="82" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="K44" s="82" t="s">
         <v>261</v>
       </c>
       <c r="L44" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="M44" s="82" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="N44" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O44" s="82" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="P44" s="82" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="82"/>
       <c r="R44" s="82" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="S44" s="91"/>
       <c r="V44" s="60"/>
@@ -26452,45 +26440,45 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="83" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
       <c r="F46" s="83" t="s">
-        <v>503</v>
+        <v>438</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="H46" s="83" t="s">
-        <v>470</v>
+        <v>405</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="J46" s="83"/>
       <c r="K46" s="83" t="s">
-        <v>509</v>
+        <v>444</v>
       </c>
       <c r="L46" s="83" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="M46" s="83" t="s">
-        <v>529</v>
+        <v>464</v>
       </c>
       <c r="N46" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="O46" s="83" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
       <c r="P46" s="83" t="s">
-        <v>531</v>
+        <v>466</v>
       </c>
       <c r="Q46" s="83"/>
       <c r="R46" s="83" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="S46" s="94"/>
       <c r="V46" s="60"/>
@@ -26520,45 +26508,45 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="82" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="F48" s="82"/>
       <c r="G48" s="82" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="H48" s="82" t="s">
         <v>261</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="J48" s="82" t="s">
         <v>264</v>
       </c>
       <c r="K48" s="82" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="L48" s="82"/>
       <c r="M48" s="82" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="N48" s="82" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="O48" s="82" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="P48" s="82" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="Q48" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R48" s="82" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="S48" s="91"/>
       <c r="V48" s="60"/>
@@ -26619,45 +26607,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="83" t="s">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>488</v>
+        <v>423</v>
       </c>
       <c r="F50" s="83"/>
       <c r="G50" s="83" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="H50" s="83" t="s">
-        <v>509</v>
+        <v>444</v>
       </c>
       <c r="I50" s="83" t="s">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="J50" s="83" t="s">
-        <v>486</v>
+        <v>421</v>
       </c>
       <c r="K50" s="83" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="L50" s="83"/>
       <c r="M50" s="83" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="N50" s="83" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="O50" s="83" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="P50" s="83" t="s">
-        <v>496</v>
+        <v>431</v>
       </c>
       <c r="Q50" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="R50" s="83" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="S50" s="94"/>
       <c r="V50" s="60"/>
@@ -26685,32 +26673,32 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="82" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="E52" s="82"/>
       <c r="F52" s="82" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="H52" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="I52" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="I52" s="82" t="s">
-        <v>306</v>
-      </c>
       <c r="J52" s="82" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L52" s="82" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="M52" s="82" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="N52" s="82"/>
       <c r="O52" s="82"/>
@@ -26735,7 +26723,7 @@
         <v>233</v>
       </c>
       <c r="G53" s="102" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="H53" s="100" t="s">
         <v>216</v>
@@ -26768,32 +26756,32 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="83" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="E54" s="83"/>
       <c r="F54" s="83" t="s">
-        <v>502</v>
+        <v>437</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="H54" s="83" t="s">
-        <v>479</v>
+        <v>414</v>
       </c>
       <c r="I54" s="83" t="s">
-        <v>494</v>
+        <v>429</v>
       </c>
       <c r="J54" s="83" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="K54" s="83" t="s">
-        <v>473</v>
+        <v>408</v>
       </c>
       <c r="L54" s="83" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="M54" s="83" t="s">
-        <v>535</v>
+        <v>470</v>
       </c>
       <c r="N54" s="83"/>
       <c r="O54" s="83"/>
@@ -30634,194 +30622,194 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="143" priority="47">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="48">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="141" priority="38">
+    <cfRule type="expression" dxfId="45" priority="38">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="37">
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="139" priority="36">
+    <cfRule type="expression" dxfId="43" priority="36">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="35">
+    <cfRule type="expression" dxfId="42" priority="35">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="137" priority="34">
+    <cfRule type="expression" dxfId="41" priority="34">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="33">
+    <cfRule type="expression" dxfId="40" priority="33">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="135" priority="31">
+    <cfRule type="expression" dxfId="39" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="32">
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23 D39:R39 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
-    <cfRule type="expression" dxfId="133" priority="46">
+    <cfRule type="expression" dxfId="37" priority="46">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="45">
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="131" priority="30">
+    <cfRule type="expression" dxfId="35" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="29">
+    <cfRule type="expression" dxfId="34" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="129" priority="28">
+    <cfRule type="expression" dxfId="33" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="27">
+    <cfRule type="expression" dxfId="32" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="127" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="125" priority="24">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="23">
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="123" priority="22">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="21">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="121" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="119" priority="18">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="17">
+    <cfRule type="expression" dxfId="22" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
-    <cfRule type="expression" dxfId="117" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="115" priority="13">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="113" priority="12">
+    <cfRule type="expression" dxfId="17" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
-    <cfRule type="expression" dxfId="111" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="109" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="107" priority="5">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
-    <cfRule type="expression" dxfId="105" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="103" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="101" priority="43">
+    <cfRule type="expression" dxfId="5" priority="43">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="44">
+    <cfRule type="expression" dxfId="4" priority="44">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:R203">
-    <cfRule type="expression" dxfId="99" priority="41">
+    <cfRule type="expression" dxfId="3" priority="41">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="42">
+    <cfRule type="expression" dxfId="2" priority="42">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239">
-    <cfRule type="expression" dxfId="97" priority="39">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="40">
+    <cfRule type="expression" dxfId="0" priority="40">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
